--- a/Blackrock DCF 10-21-22.xlsx
+++ b/Blackrock DCF 10-21-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C929F0-7D5D-D349-A5F3-A9CD0844C6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C54B3C9-8AEE-6642-840A-51B9CA17A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="460" windowWidth="25600" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="135">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Revenue Growth YoY %</t>
   </si>
   <si>
-    <t>5 Year Revenue CAGR</t>
-  </si>
-  <si>
     <t>Cost of Debt Calculation</t>
   </si>
   <si>
@@ -398,9 +395,6 @@
     <t>FCF Growth YoY %</t>
   </si>
   <si>
-    <t>5 Year FCF CAGR</t>
-  </si>
-  <si>
     <t>Present Value of Future Cash Flows</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
     <t>Shares Outstanding</t>
   </si>
   <si>
-    <t>Price Per Share</t>
-  </si>
-  <si>
     <t>Current Price</t>
   </si>
   <si>
@@ -432,6 +423,21 @@
   </si>
   <si>
     <t>BLK</t>
+  </si>
+  <si>
+    <t>Net Income Growth YoY %</t>
+  </si>
+  <si>
+    <t>10 Year Net Income CAGR</t>
+  </si>
+  <si>
+    <t>10 Year FCF CAGR</t>
+  </si>
+  <si>
+    <t>10 Year Revenue CAGR</t>
+  </si>
+  <si>
+    <t>Fair Value Per Share</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -728,8 +734,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -738,6 +742,15 @@
     </xf>
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1054,30 +1067,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF111"/>
+  <dimension ref="A1:AF112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC110" sqref="AC110"/>
+      <selection pane="bottomRight" activeCell="AC116" sqref="AC116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
     <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.83203125" customWidth="1"/>
     <col min="28" max="28" width="16.5" customWidth="1"/>
-    <col min="29" max="29" width="24.1640625" customWidth="1"/>
+    <col min="29" max="29" width="27.5" customWidth="1"/>
     <col min="32" max="32" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="8">
         <v>1998</v>
@@ -1315,7 +1328,7 @@
         <v>19374000000</v>
       </c>
       <c r="AC3" s="22" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="20" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -1419,8 +1432,8 @@
         <v>0.1955569268744215</v>
       </c>
       <c r="AC4" s="21">
-        <f>(Y4+X4+W4+V4+U4)/5</f>
-        <v>0.11811761148202056</v>
+        <f>(Y4+X4+W4+V4+U4+T4+S4+R4+Q4+P4)/10</f>
+        <v>8.0487282605940597E-2</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -2347,7 +2360,7 @@
         <v>415000000</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
@@ -2424,7 +2437,7 @@
         <v>8489000000</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2501,7 +2514,7 @@
         <v>0.43819999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -2578,7 +2591,7 @@
         <v>7450000000</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -2655,7 +2668,7 @@
         <v>0.38450000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2732,7 +2745,7 @@
         <v>723000000</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2809,7 +2822,7 @@
         <v>8173000000</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -2886,7 +2899,7 @@
         <v>0.4219</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2963,7 +2976,7 @@
         <v>1968000000</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="40" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -3039,164 +3052,199 @@
       <c r="Y25" s="11">
         <v>5901000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="AC25" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="20" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="17" t="e">
+        <f>(B25/A25)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="17">
+        <f t="shared" ref="C26:M26" si="2">(C25/B25)-1</f>
+        <v>0.66901685393258425</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" si="2"/>
+        <v>0.47030311190400065</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="2"/>
+        <v>0.22977072148899391</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="2"/>
+        <v>0.24028705996239541</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="2"/>
+        <v>0.16625265480416362</v>
+      </c>
+      <c r="H26" s="17">
+        <f t="shared" si="2"/>
+        <v>-7.8898598473636117E-2</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="2"/>
+        <v>0.63410902536659663</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="2"/>
+        <v>0.37918326863553187</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="2"/>
+        <v>2.0851389638005964</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.21026613830189134</v>
+      </c>
+      <c r="M26" s="18">
+        <f t="shared" si="2"/>
+        <v>0.11323155216284997</v>
+      </c>
+      <c r="N26" s="19">
+        <f>(N25/M25)-1</f>
+        <v>1.3577142857142857</v>
+      </c>
+      <c r="O26" s="19">
+        <f t="shared" ref="O26" si="3">(O25/N25)-1</f>
+        <v>0.13281628696073677</v>
+      </c>
+      <c r="P26" s="19">
+        <f>(P25/O25)-1</f>
+        <v>5.1775780915703784E-2</v>
+      </c>
+      <c r="Q26" s="19">
+        <f t="shared" ref="Q26:AB26" si="4">(Q25/P25)-1</f>
+        <v>0.19283970707892606</v>
+      </c>
+      <c r="R26" s="19">
+        <f t="shared" si="4"/>
+        <v>0.12346521145975453</v>
+      </c>
+      <c r="S26" s="19">
+        <f t="shared" si="4"/>
+        <v>1.5482695810564717E-2</v>
+      </c>
+      <c r="T26" s="19">
+        <f t="shared" si="4"/>
+        <v>-5.1718983557548559E-2</v>
+      </c>
+      <c r="U26" s="19">
+        <f t="shared" si="4"/>
+        <v>0.56683480453972268</v>
+      </c>
+      <c r="V26" s="19">
+        <f t="shared" si="4"/>
+        <v>-0.13380281690140849</v>
+      </c>
+      <c r="W26" s="19">
+        <f t="shared" si="4"/>
+        <v>3.9721254355400637E-2</v>
+      </c>
+      <c r="X26" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10187667560321723</v>
+      </c>
+      <c r="Y26" s="19">
+        <f t="shared" si="4"/>
+        <v>0.19647201946472026</v>
+      </c>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="21">
+        <f>(Y26+X26+W26+V26+U26+T26+S26+R26+Q26+P26)/10</f>
+        <v>0.1102946348769053</v>
+      </c>
+      <c r="AF26" s="21"/>
+    </row>
+    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="2">
         <v>0.1042</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>0.156</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>0.1832</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="2">
         <v>0.20150000000000001</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="2">
         <v>0.23089999999999999</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="2">
         <v>0.25979999999999998</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H27" s="2">
         <v>0.19739999999999999</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I27" s="2">
         <v>0.1963</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J27" s="2">
         <v>0.15379999999999999</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K27" s="2">
         <v>0.2054</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L27" s="2">
         <v>0.1552</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M27" s="2">
         <v>0.1862</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N27" s="2">
         <v>0.23949999999999999</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O27" s="2">
         <v>0.25740000000000002</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P27" s="2">
         <v>0.26329999999999998</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q27" s="2">
         <v>0.28799999999999998</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R27" s="2">
         <v>0.29730000000000001</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S27" s="2">
         <v>0.29339999999999999</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T27" s="2">
         <v>0.28439999999999999</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U27" s="2">
         <v>0.39789999999999998</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V27" s="2">
         <v>0.30320000000000003</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W27" s="2">
         <v>0.30790000000000001</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X27" s="2">
         <v>0.3044</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y27" s="2">
         <v>0.30459999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1.04</v>
-      </c>
-      <c r="D27" s="12">
-        <v>1.37</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1.67</v>
-      </c>
-      <c r="F27" s="12">
-        <v>2.06</v>
-      </c>
-      <c r="G27" s="12">
-        <v>2.4</v>
-      </c>
-      <c r="H27" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="I27" s="12">
-        <v>3.64</v>
-      </c>
-      <c r="J27" s="12">
-        <v>4</v>
-      </c>
-      <c r="K27" s="12">
-        <v>7.75</v>
-      </c>
-      <c r="L27" s="12">
-        <v>6.07</v>
-      </c>
-      <c r="M27" s="12">
-        <v>6.24</v>
-      </c>
-      <c r="N27" s="12">
-        <v>10.67</v>
-      </c>
-      <c r="O27" s="12">
-        <v>12.56</v>
-      </c>
-      <c r="P27" s="12">
-        <v>14.03</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>17.23</v>
-      </c>
-      <c r="R27" s="12">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="S27" s="12">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="T27" s="12">
-        <v>19.29</v>
-      </c>
-      <c r="U27" s="12">
-        <v>30.54</v>
-      </c>
-      <c r="V27" s="12">
-        <v>26.86</v>
-      </c>
-      <c r="W27" s="12">
-        <v>28.69</v>
-      </c>
-      <c r="X27" s="12">
-        <v>32.130000000000003</v>
-      </c>
-      <c r="Y27" s="12">
-        <v>38.450000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="B28" s="12">
         <v>0.67</v>
@@ -3205,1235 +3253,1230 @@
         <v>1.04</v>
       </c>
       <c r="D28" s="12">
+        <v>1.37</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1.67</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2.06</v>
+      </c>
+      <c r="G28" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="H28" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="I28" s="12">
+        <v>3.64</v>
+      </c>
+      <c r="J28" s="12">
+        <v>4</v>
+      </c>
+      <c r="K28" s="12">
+        <v>7.75</v>
+      </c>
+      <c r="L28" s="12">
+        <v>6.07</v>
+      </c>
+      <c r="M28" s="12">
+        <v>6.24</v>
+      </c>
+      <c r="N28" s="12">
+        <v>10.67</v>
+      </c>
+      <c r="O28" s="12">
+        <v>12.56</v>
+      </c>
+      <c r="P28" s="12">
+        <v>14.03</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>17.23</v>
+      </c>
+      <c r="R28" s="12">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="S28" s="12">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="T28" s="12">
+        <v>19.29</v>
+      </c>
+      <c r="U28" s="12">
+        <v>30.54</v>
+      </c>
+      <c r="V28" s="12">
+        <v>26.86</v>
+      </c>
+      <c r="W28" s="12">
+        <v>28.69</v>
+      </c>
+      <c r="X28" s="12">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>38.450000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1.04</v>
+      </c>
+      <c r="D29" s="12">
         <v>1.35</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="12">
         <v>1.65</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="12">
         <v>2.04</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>2.36</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H29" s="12">
         <v>2.17</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I29" s="12">
         <v>3.5</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J29" s="12">
         <v>3.87</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K29" s="12">
         <v>7.53</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L29" s="12">
         <v>5.91</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M29" s="12">
         <v>6.11</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N29" s="12">
         <v>10.55</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O29" s="12">
         <v>12.37</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P29" s="12">
         <v>13.79</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="Q29" s="12">
         <v>16.87</v>
       </c>
-      <c r="R28" s="12">
+      <c r="R29" s="12">
         <v>19.25</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S29" s="12">
         <v>19.79</v>
       </c>
-      <c r="T28" s="12">
+      <c r="T29" s="12">
         <v>19.04</v>
       </c>
-      <c r="U28" s="12">
+      <c r="U29" s="12">
         <v>30.12</v>
       </c>
-      <c r="V28" s="12">
+      <c r="V29" s="12">
         <v>26.58</v>
       </c>
-      <c r="W28" s="12">
+      <c r="W29" s="12">
         <v>28.43</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X29" s="12">
         <v>31.85</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Y29" s="12">
         <v>38.11</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>53508950</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>57057014</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>63886353</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>64271538</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
         <v>64756290</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
         <v>64653352</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>63688955</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I30" s="1">
         <v>64182766</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30" s="1">
         <v>80638167</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <v>128488561</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L30" s="1">
         <v>129543443</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M30" s="1">
         <v>136669164</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N30" s="1">
         <v>190554510</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O30" s="1">
         <v>184265367</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P30" s="1">
         <v>174961018</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q30" s="1">
         <v>170185870</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R30" s="1">
         <v>168225154</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S30" s="1">
         <v>166390009</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T30" s="1">
         <v>164425858</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U30" s="1">
         <v>162148003</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V30" s="1">
         <v>160301116</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W30" s="1">
         <v>156014343</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X30" s="1">
         <v>153489422</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y30" s="1">
         <v>153489422</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>53684125</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>57268912</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>64590707</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>64926199</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>65307548</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
         <v>65860368</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="1">
         <v>65960473</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I31" s="1">
         <v>66875149</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J31" s="1">
         <v>83358394</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K31" s="1">
         <v>132088810</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L31" s="1">
         <v>132996426</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M31" s="1">
         <v>139481449</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N31" s="1">
         <v>192692047</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O31" s="1">
         <v>187116410</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P31" s="1">
         <v>178017679</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q31" s="1">
         <v>173828902</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R31" s="1">
         <v>171112261</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S31" s="1">
         <v>169038571</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T31" s="1">
         <v>166579752</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U31" s="1">
         <v>164400000</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V31" s="1">
         <v>161948732</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W31" s="1">
         <v>157459546</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X31" s="1">
         <v>154840582</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y31" s="1">
         <v>154840582</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="Q32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R31" s="13" t="s">
+      <c r="R32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="U31" s="13" t="s">
+      <c r="U32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="V31" s="13" t="s">
+      <c r="V32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="W31" s="13" t="s">
+      <c r="W32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="X31" s="13" t="s">
+      <c r="X32" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Y31" s="13" t="s">
+      <c r="Y32" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="40" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:31" ht="40" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O32" s="9" t="s">
+      <c r="O33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="9" t="s">
+      <c r="P33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="R33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="S32" s="9" t="s">
+      <c r="S33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="T32" s="9" t="s">
+      <c r="T33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="U32" s="9" t="s">
+      <c r="U33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="V32" s="9" t="s">
+      <c r="V33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="W32" s="9" t="s">
+      <c r="W33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="X32" s="9" t="s">
+      <c r="X33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Y32" s="9" t="s">
+      <c r="Y33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AC32" s="23" t="s">
+      <c r="AC33" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+    </row>
+    <row r="34" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="1">
+        <v>157129000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>192590000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>186451000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>255234000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>315941000</v>
+      </c>
+      <c r="H34" s="1">
+        <v>457673000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>484223000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1160304000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1656200000</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2032000000</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4708000000</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3460000000</v>
+      </c>
+      <c r="O34" s="1">
+        <v>3560000000</v>
+      </c>
+      <c r="P34" s="1">
+        <v>4903000000</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>4551000000</v>
+      </c>
+      <c r="R34" s="1">
+        <v>6001000000</v>
+      </c>
+      <c r="S34" s="1">
+        <v>6231000000</v>
+      </c>
+      <c r="T34" s="1">
+        <v>6175000000</v>
+      </c>
+      <c r="U34" s="1">
+        <v>7038000000</v>
+      </c>
+      <c r="V34" s="1">
+        <v>6488000000</v>
+      </c>
+      <c r="W34" s="1">
+        <v>4829000000</v>
+      </c>
+      <c r="X34" s="1">
+        <v>8664000000</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>9323000000</v>
+      </c>
+      <c r="AC34" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-    </row>
-    <row r="33" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="1">
-        <v>157129000</v>
-      </c>
-      <c r="D33" s="1">
-        <v>192590000</v>
-      </c>
-      <c r="E33" s="1">
-        <v>186451000</v>
-      </c>
-      <c r="F33" s="1">
-        <v>255234000</v>
-      </c>
-      <c r="G33" s="1">
-        <v>315941000</v>
-      </c>
-      <c r="H33" s="1">
-        <v>457673000</v>
-      </c>
-      <c r="I33" s="1">
-        <v>484223000</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1160304000</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1656200000</v>
-      </c>
-      <c r="L33" s="1">
-        <v>2032000000</v>
-      </c>
-      <c r="M33" s="1">
-        <v>4708000000</v>
-      </c>
-      <c r="N33" s="1">
-        <v>3460000000</v>
-      </c>
-      <c r="O33" s="1">
-        <v>3560000000</v>
-      </c>
-      <c r="P33" s="1">
-        <v>4903000000</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>4551000000</v>
-      </c>
-      <c r="R33" s="1">
-        <v>6001000000</v>
-      </c>
-      <c r="S33" s="1">
-        <v>6231000000</v>
-      </c>
-      <c r="T33" s="1">
-        <v>6175000000</v>
-      </c>
-      <c r="U33" s="1">
-        <v>7038000000</v>
-      </c>
-      <c r="V33" s="1">
-        <v>6488000000</v>
-      </c>
-      <c r="W33" s="1">
-        <v>4829000000</v>
-      </c>
-      <c r="X33" s="1">
-        <v>8664000000</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>9323000000</v>
-      </c>
-      <c r="AC33" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD33" s="26">
+      <c r="AD34" s="26">
         <f>Y15</f>
         <v>205000000</v>
       </c>
-      <c r="AE33" s="24"/>
-    </row>
-    <row r="34" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2500000</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2255000</v>
-      </c>
-      <c r="D34" s="1">
-        <v>13316000</v>
-      </c>
-      <c r="E34" s="1">
-        <v>139126000</v>
-      </c>
-      <c r="F34" s="1">
-        <v>208743000</v>
-      </c>
-      <c r="G34" s="1">
-        <v>234923000</v>
-      </c>
-      <c r="H34" s="1">
-        <v>227497000</v>
-      </c>
-      <c r="I34" s="1">
-        <v>298668000</v>
-      </c>
-      <c r="J34" s="1">
-        <v>2097574000</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>7262000000</v>
-      </c>
-      <c r="AC34" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD34" s="26">
-        <f>Y51</f>
-        <v>7488000000</v>
-      </c>
       <c r="AE34" s="24"/>
     </row>
     <row r="35" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
         <v>2500000</v>
       </c>
       <c r="C35" s="1">
-        <v>159384000</v>
+        <v>2255000</v>
       </c>
       <c r="D35" s="1">
-        <v>205906000</v>
+        <v>13316000</v>
       </c>
       <c r="E35" s="1">
-        <v>325577000</v>
+        <v>139126000</v>
       </c>
       <c r="F35" s="1">
-        <v>463977000</v>
+        <v>208743000</v>
       </c>
       <c r="G35" s="1">
-        <v>550864000</v>
+        <v>234923000</v>
       </c>
       <c r="H35" s="1">
-        <v>685170000</v>
+        <v>227497000</v>
       </c>
       <c r="I35" s="1">
-        <v>782891000</v>
+        <v>298668000</v>
       </c>
       <c r="J35" s="1">
-        <v>3257878000</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1656200000</v>
-      </c>
-      <c r="L35" s="1">
-        <v>2032000000</v>
-      </c>
-      <c r="M35" s="1">
-        <v>4708000000</v>
-      </c>
-      <c r="N35" s="1">
-        <v>3460000000</v>
-      </c>
-      <c r="O35" s="1">
-        <v>3560000000</v>
-      </c>
-      <c r="P35" s="1">
-        <v>4903000000</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>4551000000</v>
-      </c>
-      <c r="R35" s="1">
-        <v>6001000000</v>
-      </c>
-      <c r="S35" s="1">
-        <v>6231000000</v>
-      </c>
-      <c r="T35" s="1">
-        <v>6175000000</v>
-      </c>
-      <c r="U35" s="1">
-        <v>7038000000</v>
-      </c>
-      <c r="V35" s="1">
-        <v>6488000000</v>
-      </c>
-      <c r="W35" s="1">
-        <v>4829000000</v>
-      </c>
-      <c r="X35" s="1">
-        <v>8664000000</v>
+        <v>2097574000</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Y35" s="1">
-        <v>16585000000</v>
+        <v>7262000000</v>
       </c>
       <c r="AC35" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD35" s="36">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="AD35" s="26">
+        <f>Y52</f>
+        <v>7488000000</v>
       </c>
       <c r="AE35" s="24"/>
     </row>
     <row r="36" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2500000</v>
       </c>
       <c r="C36" s="1">
-        <v>2111000</v>
+        <v>159384000</v>
       </c>
       <c r="D36" s="1">
-        <v>83284000</v>
+        <v>205906000</v>
       </c>
       <c r="E36" s="1">
-        <v>96659000</v>
+        <v>325577000</v>
       </c>
       <c r="F36" s="1">
-        <v>114070000</v>
+        <v>463977000</v>
       </c>
       <c r="G36" s="1">
-        <v>127316000</v>
+        <v>550864000</v>
       </c>
       <c r="H36" s="1">
-        <v>165342000</v>
+        <v>685170000</v>
       </c>
       <c r="I36" s="1">
-        <v>339578000</v>
+        <v>782891000</v>
       </c>
       <c r="J36" s="1">
-        <v>1077550000</v>
+        <v>3257878000</v>
       </c>
       <c r="K36" s="1">
-        <v>1410793000</v>
+        <v>1656200000</v>
       </c>
       <c r="L36" s="1">
-        <v>1210000000</v>
+        <v>2032000000</v>
       </c>
       <c r="M36" s="1">
-        <v>1919000000</v>
+        <v>4708000000</v>
       </c>
       <c r="N36" s="1">
-        <v>2245000000</v>
+        <v>3460000000</v>
       </c>
       <c r="O36" s="1">
-        <v>2102000000</v>
+        <v>3560000000</v>
       </c>
       <c r="P36" s="1">
-        <v>2327000000</v>
+        <v>4903000000</v>
       </c>
       <c r="Q36" s="1">
-        <v>2247000000</v>
+        <v>4551000000</v>
       </c>
       <c r="R36" s="1">
-        <v>2120000000</v>
+        <v>6001000000</v>
       </c>
       <c r="S36" s="1">
-        <v>2237000000</v>
+        <v>6231000000</v>
       </c>
       <c r="T36" s="1">
-        <v>2350000000</v>
+        <v>6175000000</v>
       </c>
       <c r="U36" s="1">
-        <v>2699000000</v>
+        <v>7038000000</v>
       </c>
       <c r="V36" s="1">
-        <v>2657000000</v>
+        <v>6488000000</v>
       </c>
       <c r="W36" s="1">
-        <v>3179000000</v>
+        <v>4829000000</v>
       </c>
       <c r="X36" s="1">
-        <v>3535000000</v>
+        <v>8664000000</v>
       </c>
       <c r="Y36" s="1">
-        <v>3789000000</v>
-      </c>
-      <c r="AC36" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD36" s="28">
-        <f>AD33/(AD34+AD35)</f>
-        <v>2.7377136752136752E-2</v>
+        <v>16585000000</v>
+      </c>
+      <c r="AC36" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD36" s="36">
+        <v>0</v>
       </c>
       <c r="AE36" s="24"/>
     </row>
     <row r="37" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2111000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>83284000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>96659000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>114070000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>127316000</v>
+      </c>
+      <c r="H37" s="1">
+        <v>165342000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>339578000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1077550000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1410793000</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1210000000</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1919000000</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2245000000</v>
+      </c>
+      <c r="O37" s="1">
+        <v>2102000000</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2327000000</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>2247000000</v>
+      </c>
+      <c r="R37" s="1">
+        <v>2120000000</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2237000000</v>
+      </c>
+      <c r="T37" s="1">
+        <v>2350000000</v>
+      </c>
+      <c r="U37" s="1">
+        <v>2699000000</v>
+      </c>
+      <c r="V37" s="1">
+        <v>2657000000</v>
+      </c>
+      <c r="W37" s="1">
+        <v>3179000000</v>
+      </c>
+      <c r="X37" s="1">
+        <v>3535000000</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>3789000000</v>
+      </c>
+      <c r="AC37" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD37" s="28">
+        <f>AD34/(AD35+AD36)</f>
+        <v>2.7377136752136752E-2</v>
+      </c>
+      <c r="AE37" s="24"/>
+    </row>
+    <row r="38" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC37" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD37" s="26">
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC38" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD38" s="26">
         <f>Y24</f>
         <v>1968000000</v>
       </c>
-      <c r="AE37" s="24"/>
-    </row>
-    <row r="38" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="AE38" s="24"/>
+    </row>
+    <row r="39" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <v>222100000</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>69153000</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>10073000</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E39" s="1">
         <v>10044000</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F39" s="1">
         <v>9391000</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G39" s="1">
         <v>9958000</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H39" s="1">
         <v>16912000</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I39" s="1">
         <v>112098000</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J39" s="1">
         <v>-2210758000</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K39" s="1">
         <v>174849000</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC38" s="25" t="s">
+      <c r="L39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC39" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AD38" s="26">
+      <c r="AD39" s="26">
         <f>Y22</f>
         <v>8173000000</v>
       </c>
-      <c r="AE38" s="24"/>
-    </row>
-    <row r="39" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="AE39" s="24"/>
+    </row>
+    <row r="40" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B40" s="10">
         <v>224600000</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C40" s="10">
         <v>230648000</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>299263000</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>432280000</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>587438000</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>688138000</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H40" s="10">
         <v>867424000</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I40" s="10">
         <v>1234567000</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J40" s="10">
         <v>2124670000</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K40" s="10">
         <v>3241842000</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L40" s="10">
         <v>3242000000</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M40" s="10">
         <v>6627000000</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N40" s="10">
         <v>5705000000</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O40" s="10">
         <v>5662000000</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P40" s="10">
         <v>7230000000</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q40" s="10">
         <v>6798000000</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R40" s="10">
         <v>8121000000</v>
       </c>
-      <c r="S39" s="10">
+      <c r="S40" s="10">
         <v>8468000000</v>
       </c>
-      <c r="T39" s="10">
+      <c r="T40" s="10">
         <v>8525000000</v>
       </c>
-      <c r="U39" s="10">
+      <c r="U40" s="10">
         <v>9737000000</v>
       </c>
-      <c r="V39" s="10">
+      <c r="V40" s="10">
         <v>9145000000</v>
       </c>
-      <c r="W39" s="10">
+      <c r="W40" s="10">
         <v>8008000000</v>
       </c>
-      <c r="X39" s="10">
+      <c r="X40" s="10">
         <v>12199000000</v>
       </c>
-      <c r="Y39" s="10">
+      <c r="Y40" s="10">
         <v>20374000000</v>
       </c>
-      <c r="AC39" s="27" t="s">
+      <c r="AC40" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD40" s="28">
+        <f>AD38/AD39</f>
+        <v>0.24079285452098373</v>
+      </c>
+      <c r="AE40" s="24"/>
+    </row>
+    <row r="41" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1">
+        <v>12300000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>22677000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45598000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>70510000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>93923000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>87006000</v>
+      </c>
+      <c r="H41" s="1">
+        <v>93701000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>129451000</v>
+      </c>
+      <c r="J41" s="1">
+        <v>214784000</v>
+      </c>
+      <c r="K41" s="1">
+        <v>266460000</v>
+      </c>
+      <c r="L41" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="M41" s="1">
+        <v>445000000</v>
+      </c>
+      <c r="N41" s="1">
+        <v>428000000</v>
+      </c>
+      <c r="O41" s="1">
+        <v>537000000</v>
+      </c>
+      <c r="P41" s="1">
+        <v>557000000</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>525000000</v>
+      </c>
+      <c r="R41" s="1">
+        <v>467000000</v>
+      </c>
+      <c r="S41" s="1">
+        <v>581000000</v>
+      </c>
+      <c r="T41" s="1">
+        <v>559000000</v>
+      </c>
+      <c r="U41" s="1">
+        <v>592000000</v>
+      </c>
+      <c r="V41" s="1">
+        <v>643000000</v>
+      </c>
+      <c r="W41" s="1">
+        <v>715000000</v>
+      </c>
+      <c r="X41" s="1">
+        <v>681000000</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>2383000000</v>
+      </c>
+      <c r="AC41" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AD39" s="28">
-        <f>AD37/AD38</f>
-        <v>0.24079285452098373</v>
-      </c>
-      <c r="AE39" s="24"/>
-    </row>
-    <row r="40" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1">
-        <v>12300000</v>
-      </c>
-      <c r="C40" s="1">
-        <v>22677000</v>
-      </c>
-      <c r="D40" s="1">
-        <v>45598000</v>
-      </c>
-      <c r="E40" s="1">
-        <v>70510000</v>
-      </c>
-      <c r="F40" s="1">
-        <v>93923000</v>
-      </c>
-      <c r="G40" s="1">
-        <v>87006000</v>
-      </c>
-      <c r="H40" s="1">
-        <v>93701000</v>
-      </c>
-      <c r="I40" s="1">
-        <v>129451000</v>
-      </c>
-      <c r="J40" s="1">
-        <v>214784000</v>
-      </c>
-      <c r="K40" s="1">
-        <v>266460000</v>
-      </c>
-      <c r="L40" s="1">
-        <v>260000000</v>
-      </c>
-      <c r="M40" s="1">
-        <v>445000000</v>
-      </c>
-      <c r="N40" s="1">
-        <v>428000000</v>
-      </c>
-      <c r="O40" s="1">
-        <v>537000000</v>
-      </c>
-      <c r="P40" s="1">
-        <v>557000000</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>525000000</v>
-      </c>
-      <c r="R40" s="1">
-        <v>467000000</v>
-      </c>
-      <c r="S40" s="1">
-        <v>581000000</v>
-      </c>
-      <c r="T40" s="1">
-        <v>559000000</v>
-      </c>
-      <c r="U40" s="1">
-        <v>592000000</v>
-      </c>
-      <c r="V40" s="1">
-        <v>643000000</v>
-      </c>
-      <c r="W40" s="1">
-        <v>715000000</v>
-      </c>
-      <c r="X40" s="1">
-        <v>681000000</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>2383000000</v>
-      </c>
-      <c r="AC40" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD40" s="28">
-        <f>AD36*(1-AD39)</f>
+      <c r="AD41" s="28">
+        <f>AD37*(1-AD40)</f>
         <v>2.078491784497841E-2</v>
       </c>
-      <c r="AE40" s="24"/>
-    </row>
-    <row r="41" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="AE41" s="24"/>
+    </row>
+    <row r="42" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1">
         <v>194257000</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="D42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="1">
         <v>5257017000</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K42" s="1">
         <v>5519714000</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L42" s="1">
         <v>5533000000</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M42" s="1">
         <v>12570000000</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N42" s="1">
         <v>12805000000</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O42" s="1">
         <v>12792000000</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P42" s="1">
         <v>12910000000</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q42" s="1">
         <v>12980000000</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R42" s="1">
         <v>12961000000</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S42" s="1">
         <v>13123000000</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T42" s="1">
         <v>13118000000</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U42" s="1">
         <v>13220000000</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V42" s="1">
         <v>13526000000</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W42" s="1">
         <v>14562000000</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X42" s="1">
         <v>14551000000</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y42" s="1">
         <v>15351000000</v>
       </c>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="24"/>
-      <c r="AE41" s="24"/>
-    </row>
-    <row r="42" spans="1:31" ht="40" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1">
-        <v>203900000</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="1">
-        <v>192142000</v>
-      </c>
-      <c r="E42" s="1">
-        <v>181688000</v>
-      </c>
-      <c r="F42" s="1">
-        <v>182827000</v>
-      </c>
-      <c r="G42" s="1">
-        <v>192079000</v>
-      </c>
-      <c r="H42" s="1">
-        <v>184110000</v>
-      </c>
-      <c r="I42" s="1">
-        <v>483982000</v>
-      </c>
-      <c r="J42" s="1">
-        <v>5882430000</v>
-      </c>
-      <c r="K42" s="1">
-        <v>6553122000</v>
-      </c>
-      <c r="L42" s="1">
-        <v>6441000000</v>
-      </c>
-      <c r="M42" s="1">
-        <v>17648000000</v>
-      </c>
-      <c r="N42" s="1">
-        <v>17512000000</v>
-      </c>
-      <c r="O42" s="1">
-        <v>17356000000</v>
-      </c>
-      <c r="P42" s="1">
-        <v>17402000000</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>17501000000</v>
-      </c>
-      <c r="R42" s="1">
-        <v>17344000000</v>
-      </c>
-      <c r="S42" s="1">
-        <v>17372000000</v>
-      </c>
-      <c r="T42" s="1">
-        <v>17363000000</v>
-      </c>
-      <c r="U42" s="1">
-        <v>17389000000</v>
-      </c>
-      <c r="V42" s="1">
-        <v>17839000000</v>
-      </c>
-      <c r="W42" s="1">
-        <v>18369000000</v>
-      </c>
-      <c r="X42" s="1">
-        <v>18263000000</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>18453000000</v>
-      </c>
-      <c r="AC42" s="23" t="s">
-        <v>105</v>
-      </c>
+      <c r="AC42" s="25"/>
       <c r="AD42" s="24"/>
       <c r="AE42" s="24"/>
     </row>
-    <row r="43" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="40" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
         <v>203900000</v>
       </c>
-      <c r="C43" s="1">
-        <v>194257000</v>
+      <c r="C43" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D43" s="1">
         <v>192142000</v>
@@ -4454,148 +4497,146 @@
         <v>483982000</v>
       </c>
       <c r="J43" s="1">
-        <v>11139447000</v>
+        <v>5882430000</v>
       </c>
       <c r="K43" s="1">
-        <v>12072836000</v>
+        <v>6553122000</v>
       </c>
       <c r="L43" s="1">
-        <v>11974000000</v>
+        <v>6441000000</v>
       </c>
       <c r="M43" s="1">
-        <v>30218000000</v>
+        <v>17648000000</v>
       </c>
       <c r="N43" s="1">
-        <v>30317000000</v>
+        <v>17512000000</v>
       </c>
       <c r="O43" s="1">
-        <v>30148000000</v>
+        <v>17356000000</v>
       </c>
       <c r="P43" s="1">
-        <v>30312000000</v>
+        <v>17402000000</v>
       </c>
       <c r="Q43" s="1">
-        <v>30481000000</v>
+        <v>17501000000</v>
       </c>
       <c r="R43" s="1">
-        <v>30305000000</v>
+        <v>17344000000</v>
       </c>
       <c r="S43" s="1">
-        <v>30495000000</v>
+        <v>17372000000</v>
       </c>
       <c r="T43" s="1">
-        <v>30481000000</v>
+        <v>17363000000</v>
       </c>
       <c r="U43" s="1">
-        <v>30609000000</v>
+        <v>17389000000</v>
       </c>
       <c r="V43" s="1">
-        <v>31365000000</v>
+        <v>17839000000</v>
       </c>
       <c r="W43" s="1">
-        <v>32931000000</v>
+        <v>18369000000</v>
       </c>
       <c r="X43" s="1">
-        <v>32814000000</v>
+        <v>18263000000</v>
       </c>
       <c r="Y43" s="1">
-        <v>33804000000</v>
-      </c>
-      <c r="AC43" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD43" s="29">
-        <v>4.2209999999999998E-2</v>
-      </c>
+        <v>18453000000</v>
+      </c>
+      <c r="AC43" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD43" s="24"/>
       <c r="AE43" s="24"/>
     </row>
     <row r="44" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <v>203900000</v>
+      </c>
+      <c r="C44" s="1">
+        <v>194257000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>192142000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>181688000</v>
       </c>
       <c r="F44" s="1">
-        <v>208743000</v>
+        <v>182827000</v>
       </c>
       <c r="G44" s="1">
-        <v>234923000</v>
+        <v>192079000</v>
       </c>
       <c r="H44" s="1">
-        <v>227497000</v>
+        <v>184110000</v>
       </c>
       <c r="I44" s="1">
-        <v>298668000</v>
+        <v>483982000</v>
       </c>
       <c r="J44" s="1">
-        <v>2097574000</v>
+        <v>11139447000</v>
       </c>
       <c r="K44" s="1">
-        <v>1999944000</v>
+        <v>12072836000</v>
       </c>
       <c r="L44" s="1">
-        <v>1429000000</v>
+        <v>11974000000</v>
       </c>
       <c r="M44" s="1">
-        <v>1049000000</v>
+        <v>30218000000</v>
       </c>
       <c r="N44" s="1">
-        <v>2852000000</v>
+        <v>30317000000</v>
       </c>
       <c r="O44" s="1">
-        <v>3270000000</v>
+        <v>30148000000</v>
       </c>
       <c r="P44" s="1">
-        <v>1750000000</v>
+        <v>30312000000</v>
       </c>
       <c r="Q44" s="1">
-        <v>2151000000</v>
+        <v>30481000000</v>
       </c>
       <c r="R44" s="1">
-        <v>1921000000</v>
+        <v>30305000000</v>
       </c>
       <c r="S44" s="1">
-        <v>1578000000</v>
+        <v>30495000000</v>
       </c>
       <c r="T44" s="1">
-        <v>1595000000</v>
+        <v>30481000000</v>
       </c>
       <c r="U44" s="1">
-        <v>1981000000</v>
+        <v>30609000000</v>
       </c>
       <c r="V44" s="1">
-        <v>1796000000</v>
+        <v>31365000000</v>
       </c>
       <c r="W44" s="1">
-        <v>5489000000</v>
+        <v>32931000000</v>
       </c>
       <c r="X44" s="1">
-        <v>6919000000</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>92</v>
+        <v>32814000000</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>33804000000</v>
       </c>
       <c r="AC44" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD44" s="24">
-        <v>1.27</v>
+        <v>105</v>
+      </c>
+      <c r="AD44" s="29">
+        <v>4.2209999999999998E-2</v>
       </c>
       <c r="AE44" s="24"/>
     </row>
     <row r="45" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>92</v>
@@ -4609,675 +4650,679 @@
       <c r="E45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>92</v>
+      <c r="F45" s="1">
+        <v>208743000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>234923000</v>
+      </c>
+      <c r="H45" s="1">
+        <v>227497000</v>
+      </c>
+      <c r="I45" s="1">
+        <v>298668000</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2097574000</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1999944000</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1429000000</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1049000000</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2852000000</v>
+      </c>
+      <c r="O45" s="1">
+        <v>3270000000</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1750000000</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2151000000</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1921000000</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1578000000</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1595000000</v>
+      </c>
+      <c r="U45" s="1">
+        <v>1981000000</v>
+      </c>
+      <c r="V45" s="1">
+        <v>1796000000</v>
+      </c>
+      <c r="W45" s="1">
+        <v>5489000000</v>
+      </c>
+      <c r="X45" s="1">
+        <v>6919000000</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AC45" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD45" s="29">
-        <v>8.5099999999999995E-2</v>
+        <v>106</v>
+      </c>
+      <c r="AD45" s="24">
+        <v>1.27</v>
       </c>
       <c r="AE45" s="24"/>
     </row>
     <row r="46" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC46" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD46" s="29">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="AE46" s="24"/>
+    </row>
+    <row r="47" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="1">
         <v>-208743000</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G47" s="1">
         <v>-234923000</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H47" s="1">
         <v>-227497000</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I47" s="1">
         <v>-298668000</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J47" s="1">
         <v>-2097574000</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K47" s="1">
         <v>4980433000</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L47" s="1">
         <v>3019000000</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M47" s="1">
         <v>139655000000</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N47" s="1">
         <v>139157000000</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O47" s="1">
         <v>140279000000</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P47" s="1">
         <v>160602000000</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q47" s="1">
         <v>179918000000</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R47" s="1">
         <v>198994000000</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S47" s="1">
         <v>184139000000</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T47" s="1">
         <v>179017000000</v>
       </c>
-      <c r="U46" s="1">
+      <c r="U47" s="1">
         <v>177298000000</v>
       </c>
-      <c r="V46" s="1">
+      <c r="V47" s="1">
         <v>116624000000</v>
       </c>
-      <c r="W46" s="1">
+      <c r="W47" s="1">
         <v>121479000000</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X47" s="1">
         <v>124369000000</v>
       </c>
-      <c r="Y46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC46" s="27" t="s">
+      <c r="Y47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC47" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD47" s="30">
+        <f>(AD44)+((AD45)*(AD46-AD44))</f>
+        <v>9.6680299999999997E-2</v>
+      </c>
+      <c r="AE47" s="24"/>
+    </row>
+    <row r="48" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>216200000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>216934000</v>
+      </c>
+      <c r="D48" s="1">
+        <v>237740000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>252198000</v>
+      </c>
+      <c r="F48" s="1">
+        <v>276750000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>279085000</v>
+      </c>
+      <c r="H48" s="1">
+        <v>277811000</v>
+      </c>
+      <c r="I48" s="1">
+        <v>613433000</v>
+      </c>
+      <c r="J48" s="1">
+        <v>11354231000</v>
+      </c>
+      <c r="K48" s="1">
+        <v>19319673000</v>
+      </c>
+      <c r="L48" s="1">
+        <v>16682000000</v>
+      </c>
+      <c r="M48" s="1">
+        <v>171367000000</v>
+      </c>
+      <c r="N48" s="1">
+        <v>172754000000</v>
+      </c>
+      <c r="O48" s="1">
+        <v>174234000000</v>
+      </c>
+      <c r="P48" s="1">
+        <v>193221000000</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>213075000000</v>
+      </c>
+      <c r="R48" s="1">
+        <v>231687000000</v>
+      </c>
+      <c r="S48" s="1">
+        <v>216793000000</v>
+      </c>
+      <c r="T48" s="1">
+        <v>211652000000</v>
+      </c>
+      <c r="U48" s="1">
+        <v>210480000000</v>
+      </c>
+      <c r="V48" s="1">
+        <v>150428000000</v>
+      </c>
+      <c r="W48" s="1">
+        <v>160614000000</v>
+      </c>
+      <c r="X48" s="1">
+        <v>164783000000</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>36187000000</v>
+      </c>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+    </row>
+    <row r="49" spans="1:32" ht="40" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>168461000000</v>
+      </c>
+      <c r="AC49" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="AD46" s="30">
-        <f>(AD43)+((AD44)*(AD45-AD43))</f>
-        <v>9.6680299999999997E-2</v>
-      </c>
-      <c r="AE46" s="24"/>
-    </row>
-    <row r="47" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1">
-        <v>216200000</v>
-      </c>
-      <c r="C47" s="1">
-        <v>216934000</v>
-      </c>
-      <c r="D47" s="1">
-        <v>237740000</v>
-      </c>
-      <c r="E47" s="1">
-        <v>252198000</v>
-      </c>
-      <c r="F47" s="1">
-        <v>276750000</v>
-      </c>
-      <c r="G47" s="1">
-        <v>279085000</v>
-      </c>
-      <c r="H47" s="1">
-        <v>277811000</v>
-      </c>
-      <c r="I47" s="1">
-        <v>613433000</v>
-      </c>
-      <c r="J47" s="1">
-        <v>11354231000</v>
-      </c>
-      <c r="K47" s="1">
-        <v>19319673000</v>
-      </c>
-      <c r="L47" s="1">
-        <v>16682000000</v>
-      </c>
-      <c r="M47" s="1">
-        <v>171367000000</v>
-      </c>
-      <c r="N47" s="1">
-        <v>172754000000</v>
-      </c>
-      <c r="O47" s="1">
-        <v>174234000000</v>
-      </c>
-      <c r="P47" s="1">
-        <v>193221000000</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>213075000000</v>
-      </c>
-      <c r="R47" s="1">
-        <v>231687000000</v>
-      </c>
-      <c r="S47" s="1">
-        <v>216793000000</v>
-      </c>
-      <c r="T47" s="1">
-        <v>211652000000</v>
-      </c>
-      <c r="U47" s="1">
-        <v>210480000000</v>
-      </c>
-      <c r="V47" s="1">
-        <v>150428000000</v>
-      </c>
-      <c r="W47" s="1">
-        <v>160614000000</v>
-      </c>
-      <c r="X47" s="1">
-        <v>164783000000</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>36187000000</v>
-      </c>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-    </row>
-    <row r="48" spans="1:31" ht="40" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>168461000000</v>
-      </c>
-      <c r="AC48" s="31" t="s">
+      <c r="AD49" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="AD48" s="32" t="s">
+      <c r="AE49" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AE48" s="32" t="s">
+    </row>
+    <row r="50" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="11">
+        <v>440800000</v>
+      </c>
+      <c r="C50" s="11">
+        <v>447582000</v>
+      </c>
+      <c r="D50" s="11">
+        <v>537003000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>684478000</v>
+      </c>
+      <c r="F50" s="11">
+        <v>864188000</v>
+      </c>
+      <c r="G50" s="11">
+        <v>967223000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1145235000</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1848000000</v>
+      </c>
+      <c r="J50" s="11">
+        <v>13478901000</v>
+      </c>
+      <c r="K50" s="11">
+        <v>22561515000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>19924000000</v>
+      </c>
+      <c r="M50" s="11">
+        <v>177994000000</v>
+      </c>
+      <c r="N50" s="11">
+        <v>178459000000</v>
+      </c>
+      <c r="O50" s="11">
+        <v>179896000000</v>
+      </c>
+      <c r="P50" s="11">
+        <v>200451000000</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>219873000000</v>
+      </c>
+      <c r="R50" s="11">
+        <v>239808000000</v>
+      </c>
+      <c r="S50" s="11">
+        <v>225261000000</v>
+      </c>
+      <c r="T50" s="11">
+        <v>220177000000</v>
+      </c>
+      <c r="U50" s="11">
+        <v>220217000000</v>
+      </c>
+      <c r="V50" s="11">
+        <v>159573000000</v>
+      </c>
+      <c r="W50" s="11">
+        <v>168622000000</v>
+      </c>
+      <c r="X50" s="11">
+        <v>176982000000</v>
+      </c>
+      <c r="Y50" s="11">
+        <v>152648000000</v>
+      </c>
+      <c r="AC50" s="25" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="11">
-        <v>440800000</v>
-      </c>
-      <c r="C49" s="11">
-        <v>447582000</v>
-      </c>
-      <c r="D49" s="11">
-        <v>537003000</v>
-      </c>
-      <c r="E49" s="11">
-        <v>684478000</v>
-      </c>
-      <c r="F49" s="11">
-        <v>864188000</v>
-      </c>
-      <c r="G49" s="11">
-        <v>967223000</v>
-      </c>
-      <c r="H49" s="11">
-        <v>1145235000</v>
-      </c>
-      <c r="I49" s="11">
-        <v>1848000000</v>
-      </c>
-      <c r="J49" s="11">
-        <v>13478901000</v>
-      </c>
-      <c r="K49" s="11">
-        <v>22561515000</v>
-      </c>
-      <c r="L49" s="11">
-        <v>19924000000</v>
-      </c>
-      <c r="M49" s="11">
-        <v>177994000000</v>
-      </c>
-      <c r="N49" s="11">
-        <v>178459000000</v>
-      </c>
-      <c r="O49" s="11">
-        <v>179896000000</v>
-      </c>
-      <c r="P49" s="11">
-        <v>200451000000</v>
-      </c>
-      <c r="Q49" s="11">
-        <v>219873000000</v>
-      </c>
-      <c r="R49" s="11">
-        <v>239808000000</v>
-      </c>
-      <c r="S49" s="11">
-        <v>225261000000</v>
-      </c>
-      <c r="T49" s="11">
-        <v>220177000000</v>
-      </c>
-      <c r="U49" s="11">
-        <v>220217000000</v>
-      </c>
-      <c r="V49" s="11">
-        <v>159573000000</v>
-      </c>
-      <c r="W49" s="11">
-        <v>168622000000</v>
-      </c>
-      <c r="X49" s="11">
-        <v>176982000000</v>
-      </c>
-      <c r="Y49" s="11">
-        <v>152648000000</v>
-      </c>
-      <c r="AC49" s="25" t="s">
+      <c r="AD50" s="26">
+        <f>AD35+AD36</f>
+        <v>7488000000</v>
+      </c>
+      <c r="AE50" s="33">
+        <f>AD50/AD52</f>
+        <v>7.3062212161423779E-2</v>
+      </c>
+      <c r="AF50" s="34" t="s">
         <v>113</v>
-      </c>
-      <c r="AD49" s="26">
-        <f>AD34+AD35</f>
-        <v>7488000000</v>
-      </c>
-      <c r="AE49" s="33">
-        <f>AD49/AD51</f>
-        <v>7.6809453471196457E-2</v>
-      </c>
-      <c r="AF49" s="34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="1">
-        <v>705000</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K50" s="1">
-        <v>788968000</v>
-      </c>
-      <c r="L50" s="1">
-        <v>545000000</v>
-      </c>
-      <c r="M50" s="1">
-        <v>845000000</v>
-      </c>
-      <c r="N50" s="1">
-        <v>1068000000</v>
-      </c>
-      <c r="O50" s="1">
-        <v>923000000</v>
-      </c>
-      <c r="P50" s="1">
-        <v>1055000000</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>1084000000</v>
-      </c>
-      <c r="R50" s="1">
-        <v>1035000000</v>
-      </c>
-      <c r="S50" s="1">
-        <v>1068000000</v>
-      </c>
-      <c r="T50" s="1">
-        <v>1094000000</v>
-      </c>
-      <c r="U50" s="1">
-        <v>1161000000</v>
-      </c>
-      <c r="V50" s="1">
-        <v>1292000000</v>
-      </c>
-      <c r="W50" s="1">
-        <v>1167000000</v>
-      </c>
-      <c r="X50" s="1">
-        <v>1028000000</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC50" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD50" s="26">
-        <v>90000000000</v>
-      </c>
-      <c r="AE50" s="33">
-        <f>AD50/AD51</f>
-        <v>0.9231905465288035</v>
-      </c>
-      <c r="AF50" s="34" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="1">
+        <v>705000</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="1">
+        <v>788968000</v>
+      </c>
+      <c r="L51" s="1">
+        <v>545000000</v>
+      </c>
+      <c r="M51" s="1">
+        <v>845000000</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1068000000</v>
+      </c>
+      <c r="O51" s="1">
+        <v>923000000</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1055000000</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1084000000</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1035000000</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1068000000</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1094000000</v>
+      </c>
+      <c r="U51" s="1">
+        <v>1161000000</v>
+      </c>
+      <c r="V51" s="1">
+        <v>1292000000</v>
+      </c>
+      <c r="W51" s="1">
+        <v>1167000000</v>
+      </c>
+      <c r="X51" s="1">
+        <v>1028000000</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC51" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD51" s="26">
+        <v>95000000000</v>
+      </c>
+      <c r="AE51" s="33">
+        <f>AD51/AD52</f>
+        <v>0.92693778783857628</v>
+      </c>
+      <c r="AF51" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>18800000</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>28200000</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K51" s="1">
+      <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K52" s="1">
         <v>300000000</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L52" s="1">
         <v>200000000</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M52" s="1">
         <v>2234000000</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N52" s="1">
         <v>100000000</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O52" s="1">
         <v>100000000</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P52" s="1">
         <v>100000000</v>
       </c>
-      <c r="Q51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y51" s="1">
+      <c r="Q52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y52" s="1">
         <v>7488000000</v>
       </c>
-      <c r="AC51" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD51" s="26">
-        <f>AD49+AD50</f>
-        <v>97488000000</v>
-      </c>
-      <c r="AE51" s="24"/>
-    </row>
-    <row r="52" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="AC52" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD52" s="26">
+        <f>AD50+AD51</f>
+        <v>102488000000</v>
+      </c>
+      <c r="AE52" s="24"/>
+    </row>
+    <row r="53" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC52" s="25"/>
-      <c r="AD52" s="24"/>
-      <c r="AE52" s="24"/>
-    </row>
-    <row r="53" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="B53" s="1" t="s">
         <v>92</v>
       </c>
@@ -5344,266 +5389,269 @@
       <c r="W53" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X53" s="1">
-        <v>3673000000</v>
+      <c r="X53" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC53" s="35" t="s">
-        <v>118</v>
-      </c>
+      <c r="AC53" s="25"/>
       <c r="AD53" s="24"/>
       <c r="AE53" s="24"/>
     </row>
     <row r="54" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X54" s="1">
+        <v>3673000000</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC54" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+    </row>
+    <row r="55" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J54" s="1">
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J55" s="1">
         <v>9435000000</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K55" s="1">
         <v>1200937000</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L55" s="1">
         <v>929000000</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M55" s="1">
         <v>1921000000</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N55" s="1">
         <v>1577000000</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O55" s="1">
         <v>1405000000</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P55" s="1">
         <v>14000000</v>
       </c>
-      <c r="Q54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X54" s="1">
+      <c r="Q55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X55" s="1">
         <v>-3673000000</v>
       </c>
-      <c r="Y54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC54" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD54" s="28">
-        <f>(AE49*AD36)+(AE50*AD46)</f>
-        <v>9.1357161907106507E-2</v>
-      </c>
-      <c r="AE54" s="24"/>
-    </row>
-    <row r="55" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="Y55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC55" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD55" s="28">
+        <f>(AE50*AD37)+(AE51*AD47)</f>
+        <v>9.1616857583326827E-2</v>
+      </c>
+      <c r="AE55" s="24"/>
+    </row>
+    <row r="56" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B56" s="10">
         <v>18800000</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C56" s="10">
         <v>28905000</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J55" s="10">
+      <c r="D56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J56" s="10">
         <v>9435000000</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K56" s="10">
         <v>2289905000</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L56" s="10">
         <v>1674000000</v>
       </c>
-      <c r="M55" s="10">
+      <c r="M56" s="10">
         <v>5000000000</v>
       </c>
-      <c r="N55" s="10">
+      <c r="N56" s="10">
         <v>2745000000</v>
       </c>
-      <c r="O55" s="10">
+      <c r="O56" s="10">
         <v>2428000000</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P56" s="10">
         <v>1169000000</v>
       </c>
-      <c r="Q55" s="10">
+      <c r="Q56" s="10">
         <v>1084000000</v>
       </c>
-      <c r="R55" s="10">
+      <c r="R56" s="10">
         <v>1035000000</v>
       </c>
-      <c r="S55" s="10">
+      <c r="S56" s="10">
         <v>1068000000</v>
       </c>
-      <c r="T55" s="10">
+      <c r="T56" s="10">
         <v>1094000000</v>
       </c>
-      <c r="U55" s="10">
+      <c r="U56" s="10">
         <v>1161000000</v>
       </c>
-      <c r="V55" s="10">
+      <c r="V56" s="10">
         <v>1292000000</v>
       </c>
-      <c r="W55" s="10">
+      <c r="W56" s="10">
         <v>1167000000</v>
       </c>
-      <c r="X55" s="10">
+      <c r="X56" s="10">
         <v>1028000000</v>
       </c>
-      <c r="Y55" s="10">
+      <c r="Y56" s="10">
         <v>7488000000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="1">
-        <v>178200000</v>
-      </c>
-      <c r="C56" s="1">
-        <v>28200000</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I56" s="1">
-        <v>253791000</v>
-      </c>
-      <c r="J56" s="1">
-        <v>497003000</v>
-      </c>
-      <c r="K56" s="1">
-        <v>947021000</v>
-      </c>
-      <c r="L56" s="1">
-        <v>946000000</v>
-      </c>
-      <c r="M56" s="1">
-        <v>3434000000</v>
-      </c>
-      <c r="N56" s="1">
-        <v>4537000000</v>
-      </c>
-      <c r="O56" s="1">
-        <v>6264000000</v>
-      </c>
-      <c r="P56" s="1">
-        <v>8089000000</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>7308000000</v>
-      </c>
-      <c r="R56" s="1">
-        <v>8327000000</v>
-      </c>
-      <c r="S56" s="1">
-        <v>4930000000</v>
-      </c>
-      <c r="T56" s="1">
-        <v>4915000000</v>
-      </c>
-      <c r="U56" s="1">
-        <v>5014000000</v>
-      </c>
-      <c r="V56" s="1">
-        <v>5063000000</v>
-      </c>
-      <c r="W56" s="1">
-        <v>4955000000</v>
-      </c>
-      <c r="X56" s="1">
-        <v>7264000000</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>53</v>
+      </c>
+      <c r="B57" s="1">
+        <v>178200000</v>
+      </c>
+      <c r="C57" s="1">
+        <v>28200000</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>92</v>
@@ -5620,53 +5668,53 @@
       <c r="H57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>92</v>
+      <c r="I57" s="1">
+        <v>253791000</v>
+      </c>
+      <c r="J57" s="1">
+        <v>497003000</v>
+      </c>
+      <c r="K57" s="1">
+        <v>947021000</v>
+      </c>
+      <c r="L57" s="1">
+        <v>946000000</v>
+      </c>
+      <c r="M57" s="1">
+        <v>3434000000</v>
+      </c>
+      <c r="N57" s="1">
+        <v>4537000000</v>
+      </c>
+      <c r="O57" s="1">
+        <v>6264000000</v>
+      </c>
+      <c r="P57" s="1">
+        <v>8089000000</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>7308000000</v>
+      </c>
+      <c r="R57" s="1">
+        <v>8327000000</v>
+      </c>
+      <c r="S57" s="1">
+        <v>4930000000</v>
+      </c>
+      <c r="T57" s="1">
+        <v>4915000000</v>
+      </c>
+      <c r="U57" s="1">
+        <v>5014000000</v>
+      </c>
+      <c r="V57" s="1">
+        <v>5063000000</v>
+      </c>
+      <c r="W57" s="1">
+        <v>4955000000</v>
+      </c>
+      <c r="X57" s="1">
+        <v>7264000000</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>92</v>
@@ -5674,7 +5722,7 @@
     </row>
     <row r="58" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
@@ -5700,58 +5748,58 @@
       <c r="I58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J58" s="1">
-        <v>1738670000</v>
-      </c>
-      <c r="K58" s="1">
-        <v>2059980000</v>
-      </c>
-      <c r="L58" s="1">
-        <v>1825000000</v>
-      </c>
-      <c r="M58" s="1">
-        <v>5526000000</v>
-      </c>
-      <c r="N58" s="1">
-        <v>5477000000</v>
-      </c>
-      <c r="O58" s="1">
-        <v>5323000000</v>
-      </c>
-      <c r="P58" s="1">
-        <v>5293000000</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>5085000000</v>
-      </c>
-      <c r="R58" s="1">
-        <v>4989000000</v>
-      </c>
-      <c r="S58" s="1">
-        <v>4851000000</v>
-      </c>
-      <c r="T58" s="1">
-        <v>4840000000</v>
-      </c>
-      <c r="U58" s="1">
-        <v>3538000000</v>
-      </c>
-      <c r="V58" s="1">
-        <v>3571000000</v>
-      </c>
-      <c r="W58" s="1">
-        <v>3734000000</v>
-      </c>
-      <c r="X58" s="1">
-        <v>3673000000</v>
-      </c>
-      <c r="Y58" s="1">
-        <v>2758000000</v>
+      <c r="J58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>92</v>
@@ -5778,63 +5826,63 @@
         <v>92</v>
       </c>
       <c r="J59" s="1">
-        <v>-1982673000</v>
+        <v>1738670000</v>
       </c>
       <c r="K59" s="1">
-        <v>5089444000</v>
+        <v>2059980000</v>
       </c>
       <c r="L59" s="1">
-        <v>2922000000</v>
+        <v>1825000000</v>
       </c>
       <c r="M59" s="1">
-        <v>139432000000</v>
+        <v>5526000000</v>
       </c>
       <c r="N59" s="1">
-        <v>139366000000</v>
+        <v>5477000000</v>
       </c>
       <c r="O59" s="1">
-        <v>140519000000</v>
+        <v>5323000000</v>
       </c>
       <c r="P59" s="1">
-        <v>160315000000</v>
+        <v>5293000000</v>
       </c>
       <c r="Q59" s="1">
-        <v>179780000000</v>
+        <v>5085000000</v>
       </c>
       <c r="R59" s="1">
-        <v>197972000000</v>
+        <v>4989000000</v>
       </c>
       <c r="S59" s="1">
-        <v>185832000000</v>
+        <v>4851000000</v>
       </c>
       <c r="T59" s="1">
-        <v>180178000000</v>
+        <v>4840000000</v>
       </c>
       <c r="U59" s="1">
-        <v>178629000000</v>
+        <v>3538000000</v>
       </c>
       <c r="V59" s="1">
-        <v>117214000000</v>
+        <v>3571000000</v>
       </c>
       <c r="W59" s="1">
-        <v>125153000000</v>
+        <v>3734000000</v>
       </c>
       <c r="X59" s="1">
-        <v>129683000000</v>
+        <v>3673000000</v>
       </c>
       <c r="Y59" s="1">
-        <v>103509000000</v>
+        <v>2758000000</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1">
-        <v>178200000</v>
-      </c>
-      <c r="C60" s="1">
-        <v>28200000</v>
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>92</v>
@@ -5851,1062 +5899,1062 @@
       <c r="H60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I60" s="1">
-        <v>253791000</v>
+      <c r="I60" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="J60" s="1">
-        <v>253000000</v>
+        <v>-1982673000</v>
       </c>
       <c r="K60" s="1">
-        <v>8096445000</v>
+        <v>5089444000</v>
       </c>
       <c r="L60" s="1">
-        <v>5693000000</v>
+        <v>2922000000</v>
       </c>
       <c r="M60" s="1">
-        <v>148392000000</v>
+        <v>139432000000</v>
       </c>
       <c r="N60" s="1">
-        <v>149380000000</v>
+        <v>139366000000</v>
       </c>
       <c r="O60" s="1">
-        <v>152106000000</v>
+        <v>140519000000</v>
       </c>
       <c r="P60" s="1">
-        <v>173697000000</v>
+        <v>160315000000</v>
       </c>
       <c r="Q60" s="1">
-        <v>192173000000</v>
+        <v>179780000000</v>
       </c>
       <c r="R60" s="1">
-        <v>211288000000</v>
+        <v>197972000000</v>
       </c>
       <c r="S60" s="1">
-        <v>195613000000</v>
+        <v>185832000000</v>
       </c>
       <c r="T60" s="1">
-        <v>189933000000</v>
+        <v>180178000000</v>
       </c>
       <c r="U60" s="1">
-        <v>187181000000</v>
+        <v>178629000000</v>
       </c>
       <c r="V60" s="1">
-        <v>125848000000</v>
+        <v>117214000000</v>
       </c>
       <c r="W60" s="1">
-        <v>133842000000</v>
+        <v>125153000000</v>
       </c>
       <c r="X60" s="1">
-        <v>140620000000</v>
+        <v>129683000000</v>
       </c>
       <c r="Y60" s="1">
-        <v>106267000000</v>
+        <v>103509000000</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="1">
+        <v>178200000</v>
+      </c>
+      <c r="C61" s="1">
+        <v>28200000</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="1">
+        <v>253791000</v>
+      </c>
+      <c r="J61" s="1">
+        <v>253000000</v>
+      </c>
+      <c r="K61" s="1">
+        <v>8096445000</v>
+      </c>
+      <c r="L61" s="1">
+        <v>5693000000</v>
+      </c>
+      <c r="M61" s="1">
+        <v>148392000000</v>
+      </c>
+      <c r="N61" s="1">
+        <v>149380000000</v>
+      </c>
+      <c r="O61" s="1">
+        <v>152106000000</v>
+      </c>
+      <c r="P61" s="1">
+        <v>173697000000</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>192173000000</v>
+      </c>
+      <c r="R61" s="1">
+        <v>211288000000</v>
+      </c>
+      <c r="S61" s="1">
+        <v>195613000000</v>
+      </c>
+      <c r="T61" s="1">
+        <v>189933000000</v>
+      </c>
+      <c r="U61" s="1">
+        <v>187181000000</v>
+      </c>
+      <c r="V61" s="1">
+        <v>125848000000</v>
+      </c>
+      <c r="W61" s="1">
+        <v>133842000000</v>
+      </c>
+      <c r="X61" s="1">
+        <v>140620000000</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>106267000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B62" s="1">
         <v>494000000</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C62" s="1">
         <v>166351000</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D62" s="1">
         <v>168762000</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E62" s="1">
         <v>198361000</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F62" s="1">
         <v>229534000</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G62" s="1">
         <v>252676000</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H62" s="1">
         <v>359714000</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I62" s="1">
         <v>1169934000</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y61" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="J62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B63" s="10">
         <v>334600000</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C63" s="10">
         <v>167056000</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>168762000</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E63" s="10">
         <v>198361000</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>229534000</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>252676000</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H63" s="10">
         <v>359714000</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I63" s="10">
         <v>916143000</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J63" s="10">
         <v>8578520000</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K63" s="10">
         <v>10386350000</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L63" s="10">
         <v>7367000000</v>
       </c>
-      <c r="M62" s="10">
+      <c r="M63" s="10">
         <v>153392000000</v>
       </c>
-      <c r="N62" s="10">
+      <c r="N63" s="10">
         <v>152125000000</v>
       </c>
-      <c r="O62" s="10">
+      <c r="O63" s="10">
         <v>154534000000</v>
       </c>
-      <c r="P62" s="10">
+      <c r="P63" s="10">
         <v>174866000000</v>
       </c>
-      <c r="Q62" s="10">
+      <c r="Q63" s="10">
         <v>193257000000</v>
       </c>
-      <c r="R62" s="10">
+      <c r="R63" s="10">
         <v>212323000000</v>
       </c>
-      <c r="S62" s="10">
+      <c r="S63" s="10">
         <v>196681000000</v>
       </c>
-      <c r="T62" s="10">
+      <c r="T63" s="10">
         <v>191027000000</v>
       </c>
-      <c r="U62" s="10">
+      <c r="U63" s="10">
         <v>188342000000</v>
       </c>
-      <c r="V62" s="10">
+      <c r="V63" s="10">
         <v>127140000000</v>
       </c>
-      <c r="W62" s="10">
+      <c r="W63" s="10">
         <v>135009000000</v>
       </c>
-      <c r="X62" s="10">
+      <c r="X63" s="10">
         <v>141648000000</v>
       </c>
-      <c r="Y62" s="10">
+      <c r="Y63" s="10">
         <v>113755000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="1">
-        <v>639000</v>
-      </c>
-      <c r="D63" s="1">
-        <v>640000</v>
-      </c>
-      <c r="E63" s="1">
-        <v>646000</v>
-      </c>
-      <c r="F63" s="1">
-        <v>652000</v>
-      </c>
-      <c r="G63" s="1">
-        <v>653000</v>
-      </c>
-      <c r="H63" s="1">
-        <v>647000</v>
-      </c>
-      <c r="I63" s="1">
-        <v>653000</v>
-      </c>
-      <c r="J63" s="1">
-        <v>1174000</v>
-      </c>
-      <c r="K63" s="1">
-        <v>1186000</v>
-      </c>
-      <c r="L63" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="M63" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="N63" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="O63" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="P63" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="R63" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="S63" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="T63" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="U63" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="V63" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="W63" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="X63" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>2000000</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="1">
-        <v>53300000</v>
+        <v>59</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C64" s="1">
-        <v>112703000</v>
+        <v>639000</v>
       </c>
       <c r="D64" s="1">
-        <v>200064000</v>
+        <v>640000</v>
       </c>
       <c r="E64" s="1">
-        <v>307498000</v>
+        <v>646000</v>
       </c>
       <c r="F64" s="1">
-        <v>440747000</v>
+        <v>652000</v>
       </c>
       <c r="G64" s="1">
-        <v>570535000</v>
+        <v>653000</v>
       </c>
       <c r="H64" s="1">
-        <v>650016000</v>
+        <v>647000</v>
       </c>
       <c r="I64" s="1">
-        <v>806884000</v>
+        <v>653000</v>
       </c>
       <c r="J64" s="1">
-        <v>993821000</v>
+        <v>1174000</v>
       </c>
       <c r="K64" s="1">
-        <v>1622041000</v>
+        <v>1186000</v>
       </c>
       <c r="L64" s="1">
-        <v>1991000000</v>
+        <v>1000000</v>
       </c>
       <c r="M64" s="1">
-        <v>2436000000</v>
+        <v>1000000</v>
       </c>
       <c r="N64" s="1">
-        <v>3798000000</v>
+        <v>1000000</v>
       </c>
       <c r="O64" s="1">
-        <v>5118000000</v>
+        <v>1000000</v>
       </c>
       <c r="P64" s="1">
-        <v>6473000000</v>
+        <v>2000000</v>
       </c>
       <c r="Q64" s="1">
-        <v>8230000000</v>
+        <v>2000000</v>
       </c>
       <c r="R64" s="1">
-        <v>10145000000</v>
+        <v>2000000</v>
       </c>
       <c r="S64" s="1">
-        <v>12033000000</v>
+        <v>2000000</v>
       </c>
       <c r="T64" s="1">
-        <v>13660000000</v>
+        <v>2000000</v>
       </c>
       <c r="U64" s="1">
-        <v>16966000000</v>
+        <v>2000000</v>
       </c>
       <c r="V64" s="1">
-        <v>19282000000</v>
+        <v>2000000</v>
       </c>
       <c r="W64" s="1">
-        <v>21662000000</v>
+        <v>2000000</v>
       </c>
       <c r="X64" s="1">
-        <v>24334000000</v>
+        <v>2000000</v>
       </c>
       <c r="Y64" s="1">
-        <v>27688000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="B65" s="1">
+        <v>53300000</v>
+      </c>
+      <c r="C65" s="1">
+        <v>112703000</v>
+      </c>
+      <c r="D65" s="1">
+        <v>200064000</v>
+      </c>
+      <c r="E65" s="1">
+        <v>307498000</v>
       </c>
       <c r="F65" s="1">
-        <v>231000</v>
+        <v>440747000</v>
       </c>
       <c r="G65" s="1">
-        <v>6027000</v>
+        <v>570535000</v>
       </c>
       <c r="H65" s="1">
-        <v>8254000</v>
+        <v>650016000</v>
       </c>
       <c r="I65" s="1">
-        <v>2673000</v>
+        <v>806884000</v>
       </c>
       <c r="J65" s="1">
-        <v>44666000</v>
+        <v>993821000</v>
       </c>
       <c r="K65" s="1">
-        <v>71020000</v>
+        <v>1622041000</v>
       </c>
       <c r="L65" s="1">
-        <v>-186000000</v>
+        <v>1991000000</v>
       </c>
       <c r="M65" s="1">
-        <v>-96000000</v>
+        <v>2436000000</v>
       </c>
       <c r="N65" s="1">
-        <v>-96000000</v>
+        <v>3798000000</v>
       </c>
       <c r="O65" s="1">
-        <v>-127000000</v>
+        <v>5118000000</v>
       </c>
       <c r="P65" s="1">
-        <v>-59000000</v>
+        <v>6473000000</v>
       </c>
       <c r="Q65" s="1">
-        <v>-35000000</v>
+        <v>8230000000</v>
       </c>
       <c r="R65" s="1">
-        <v>-273000000</v>
+        <v>10145000000</v>
       </c>
       <c r="S65" s="1">
-        <v>-448000000</v>
+        <v>12033000000</v>
       </c>
       <c r="T65" s="1">
-        <v>-716000000</v>
+        <v>13660000000</v>
       </c>
       <c r="U65" s="1">
-        <v>-432000000</v>
+        <v>16966000000</v>
       </c>
       <c r="V65" s="1">
-        <v>-691000000</v>
+        <v>19282000000</v>
       </c>
       <c r="W65" s="1">
-        <v>-571000000</v>
+        <v>21662000000</v>
       </c>
       <c r="X65" s="1">
-        <v>-337000000</v>
+        <v>24334000000</v>
       </c>
       <c r="Y65" s="1">
-        <v>-550000000</v>
+        <v>27688000000</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="1">
+        <v>231000</v>
+      </c>
+      <c r="G66" s="1">
+        <v>6027000</v>
+      </c>
+      <c r="H66" s="1">
+        <v>8254000</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2673000</v>
+      </c>
+      <c r="J66" s="1">
+        <v>44666000</v>
+      </c>
+      <c r="K66" s="1">
+        <v>71020000</v>
+      </c>
+      <c r="L66" s="1">
+        <v>-186000000</v>
+      </c>
+      <c r="M66" s="1">
+        <v>-96000000</v>
+      </c>
+      <c r="N66" s="1">
+        <v>-96000000</v>
+      </c>
+      <c r="O66" s="1">
+        <v>-127000000</v>
+      </c>
+      <c r="P66" s="1">
+        <v>-59000000</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>-35000000</v>
+      </c>
+      <c r="R66" s="1">
+        <v>-273000000</v>
+      </c>
+      <c r="S66" s="1">
+        <v>-448000000</v>
+      </c>
+      <c r="T66" s="1">
+        <v>-716000000</v>
+      </c>
+      <c r="U66" s="1">
+        <v>-432000000</v>
+      </c>
+      <c r="V66" s="1">
+        <v>-691000000</v>
+      </c>
+      <c r="W66" s="1">
+        <v>-571000000</v>
+      </c>
+      <c r="X66" s="1">
+        <v>-337000000</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>-550000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B67" s="1">
         <v>52900000</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C67" s="1">
         <v>167184000</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D67" s="1">
         <v>167537000</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E67" s="1">
         <v>177973000</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F67" s="1">
         <v>193024000</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G67" s="1">
         <v>136093000</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H67" s="1">
         <v>109435000</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I67" s="1">
         <v>112033000</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J67" s="1">
         <v>9742093000</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K67" s="1">
         <v>9902582000</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L67" s="1">
         <v>10260000000</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M67" s="1">
         <v>21987000000</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N67" s="1">
         <v>22390000000</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O67" s="1">
         <v>20056000000</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P67" s="1">
         <v>18987000000</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q67" s="1">
         <v>18263000000</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R67" s="1">
         <v>17492000000</v>
       </c>
-      <c r="S66" s="1">
+      <c r="S67" s="1">
         <v>16916000000</v>
       </c>
-      <c r="T66" s="1">
+      <c r="T67" s="1">
         <v>16152000000</v>
       </c>
-      <c r="U66" s="1">
+      <c r="U67" s="1">
         <v>15289000000</v>
       </c>
-      <c r="V66" s="1">
+      <c r="V67" s="1">
         <v>13781000000</v>
       </c>
-      <c r="W66" s="1">
+      <c r="W67" s="1">
         <v>12454000000</v>
       </c>
-      <c r="X66" s="1">
+      <c r="X67" s="1">
         <v>11284000000</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="Y67" s="1">
         <v>10666000000</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="68" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B68" s="10">
         <v>106200000</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C68" s="10">
         <v>280526000</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>368241000</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>486117000</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>634654000</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>713308000</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H68" s="10">
         <v>768352000</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I68" s="10">
         <v>922243000</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J68" s="10">
         <v>10781880000</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K68" s="10">
         <v>11596955000</v>
       </c>
-      <c r="L67" s="10">
+      <c r="L68" s="10">
         <v>12066000000</v>
       </c>
-      <c r="M67" s="10">
+      <c r="M68" s="10">
         <v>24329000000</v>
       </c>
-      <c r="N67" s="10">
+      <c r="N68" s="10">
         <v>26094000000</v>
       </c>
-      <c r="O67" s="10">
+      <c r="O68" s="10">
         <v>25048000000</v>
       </c>
-      <c r="P67" s="10">
+      <c r="P68" s="10">
         <v>25403000000</v>
       </c>
-      <c r="Q67" s="10">
+      <c r="Q68" s="10">
         <v>26460000000</v>
       </c>
-      <c r="R67" s="10">
+      <c r="R68" s="10">
         <v>27366000000</v>
       </c>
-      <c r="S67" s="10">
+      <c r="S68" s="10">
         <v>28503000000</v>
       </c>
-      <c r="T67" s="10">
+      <c r="T68" s="10">
         <v>29098000000</v>
       </c>
-      <c r="U67" s="10">
+      <c r="U68" s="10">
         <v>31825000000</v>
       </c>
-      <c r="V67" s="10">
+      <c r="V68" s="10">
         <v>32374000000</v>
       </c>
-      <c r="W67" s="10">
+      <c r="W68" s="10">
         <v>33547000000</v>
       </c>
-      <c r="X67" s="10">
+      <c r="X68" s="10">
         <v>35283000000</v>
       </c>
-      <c r="Y67" s="10">
+      <c r="Y68" s="10">
         <v>37806000000</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B69" s="11">
         <v>440800000</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C69" s="11">
         <v>447582000</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>537003000</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>684478000</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>864188000</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>965984000</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H69" s="11">
         <v>1128066000</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I69" s="11">
         <v>1838386000</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J69" s="11">
         <v>19360400000</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K69" s="11">
         <v>21983305000</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L69" s="11">
         <v>19433000000</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M69" s="11">
         <v>177721000000</v>
       </c>
-      <c r="N68" s="11">
+      <c r="N69" s="11">
         <v>178219000000</v>
       </c>
-      <c r="O68" s="11">
+      <c r="O69" s="11">
         <v>179582000000</v>
       </c>
-      <c r="P68" s="11">
+      <c r="P69" s="11">
         <v>200269000000</v>
       </c>
-      <c r="Q68" s="11">
+      <c r="Q69" s="11">
         <v>219717000000</v>
       </c>
-      <c r="R68" s="11">
+      <c r="R69" s="11">
         <v>239689000000</v>
       </c>
-      <c r="S68" s="11">
+      <c r="S69" s="11">
         <v>225184000000</v>
       </c>
-      <c r="T68" s="11">
+      <c r="T69" s="11">
         <v>220125000000</v>
       </c>
-      <c r="U68" s="11">
+      <c r="U69" s="11">
         <v>220167000000</v>
       </c>
-      <c r="V68" s="11">
+      <c r="V69" s="11">
         <v>159514000000</v>
       </c>
-      <c r="W68" s="11">
+      <c r="W69" s="11">
         <v>168556000000</v>
       </c>
-      <c r="X68" s="11">
+      <c r="X69" s="11">
         <v>176931000000</v>
       </c>
-      <c r="Y68" s="11">
+      <c r="Y69" s="11">
         <v>151561000000</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="I70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="J70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="K70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L69" s="13" t="s">
+      <c r="L70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M69" s="13" t="s">
+      <c r="M70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N69" s="13" t="s">
+      <c r="N70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O69" s="13" t="s">
+      <c r="O70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="P69" s="13" t="s">
+      <c r="P70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q69" s="13" t="s">
+      <c r="Q70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R69" s="13" t="s">
+      <c r="R70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S69" s="13" t="s">
+      <c r="S70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="T69" s="13" t="s">
+      <c r="T70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="U69" s="13" t="s">
+      <c r="U70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="V69" s="13" t="s">
+      <c r="V70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="W69" s="13" t="s">
+      <c r="W70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="X69" s="13" t="s">
+      <c r="X70" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Y69" s="13" t="s">
+      <c r="Y70" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="21" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:25" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="K71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="M70" s="9" t="s">
+      <c r="M71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="N71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O70" s="9" t="s">
+      <c r="O71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="P70" s="9" t="s">
+      <c r="P71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Q70" s="9" t="s">
+      <c r="Q71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="R70" s="9" t="s">
+      <c r="R71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="S70" s="9" t="s">
+      <c r="S71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="T70" s="9" t="s">
+      <c r="T71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="U70" s="9" t="s">
+      <c r="U71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="V70" s="9" t="s">
+      <c r="V71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="W70" s="9" t="s">
+      <c r="W71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="X70" s="9" t="s">
+      <c r="X71" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Y70" s="9" t="s">
+      <c r="Y71" s="9" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="1">
-        <v>35600000</v>
-      </c>
-      <c r="C71" s="1">
-        <v>59417000</v>
-      </c>
-      <c r="D71" s="1">
-        <v>87361000</v>
-      </c>
-      <c r="E71" s="1">
-        <v>107434000</v>
-      </c>
-      <c r="F71" s="1">
-        <v>133249000</v>
-      </c>
-      <c r="G71" s="1">
-        <v>155402000</v>
-      </c>
-      <c r="H71" s="1">
-        <v>143141000</v>
-      </c>
-      <c r="I71" s="1">
-        <v>233908000</v>
-      </c>
-      <c r="J71" s="1">
-        <v>322602000</v>
-      </c>
-      <c r="K71" s="1">
-        <v>995272000</v>
-      </c>
-      <c r="L71" s="1">
-        <v>786000000</v>
-      </c>
-      <c r="M71" s="1">
-        <v>875000000</v>
-      </c>
-      <c r="N71" s="1">
-        <v>2063000000</v>
-      </c>
-      <c r="O71" s="1">
-        <v>2337000000</v>
-      </c>
-      <c r="P71" s="1">
-        <v>2458000000</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>2932000000</v>
-      </c>
-      <c r="R71" s="1">
-        <v>3294000000</v>
-      </c>
-      <c r="S71" s="1">
-        <v>3345000000</v>
-      </c>
-      <c r="T71" s="1">
-        <v>3172000000</v>
-      </c>
-      <c r="U71" s="1">
-        <v>4970000000</v>
-      </c>
-      <c r="V71" s="1">
-        <v>4305000000</v>
-      </c>
-      <c r="W71" s="1">
-        <v>4476000000</v>
-      </c>
-      <c r="X71" s="1">
-        <v>4932000000</v>
-      </c>
-      <c r="Y71" s="1">
-        <v>5901000000</v>
       </c>
     </row>
     <row r="72" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1">
-        <v>12900000</v>
+        <v>35600000</v>
       </c>
       <c r="C72" s="1">
-        <v>18153000</v>
+        <v>59417000</v>
       </c>
       <c r="D72" s="1">
-        <v>19995000</v>
+        <v>87361000</v>
       </c>
       <c r="E72" s="1">
-        <v>26021000</v>
+        <v>107434000</v>
       </c>
       <c r="F72" s="1">
-        <v>20238000</v>
+        <v>133249000</v>
       </c>
       <c r="G72" s="1">
-        <v>21366000</v>
+        <v>155402000</v>
       </c>
       <c r="H72" s="1">
-        <v>20686000</v>
+        <v>143141000</v>
       </c>
       <c r="I72" s="1">
-        <v>30902000</v>
+        <v>233908000</v>
       </c>
       <c r="J72" s="1">
-        <v>72809000</v>
+        <v>322602000</v>
       </c>
       <c r="K72" s="1">
-        <v>198824000</v>
+        <v>995272000</v>
       </c>
       <c r="L72" s="1">
-        <v>232000000</v>
+        <v>786000000</v>
       </c>
       <c r="M72" s="1">
-        <v>239000000</v>
+        <v>875000000</v>
       </c>
       <c r="N72" s="1">
-        <v>310000000</v>
+        <v>2063000000</v>
       </c>
       <c r="O72" s="1">
-        <v>299000000</v>
+        <v>2337000000</v>
       </c>
       <c r="P72" s="1">
-        <v>295000000</v>
+        <v>2458000000</v>
       </c>
       <c r="Q72" s="1">
-        <v>291000000</v>
+        <v>2932000000</v>
       </c>
       <c r="R72" s="1">
-        <v>278000000</v>
+        <v>3294000000</v>
       </c>
       <c r="S72" s="1">
-        <v>247000000</v>
+        <v>3345000000</v>
       </c>
       <c r="T72" s="1">
-        <v>229000000</v>
+        <v>3172000000</v>
       </c>
       <c r="U72" s="1">
-        <v>240000000</v>
+        <v>4970000000</v>
       </c>
       <c r="V72" s="1">
-        <v>220000000</v>
+        <v>4305000000</v>
       </c>
       <c r="W72" s="1">
-        <v>405000000</v>
+        <v>4476000000</v>
       </c>
       <c r="X72" s="1">
-        <v>358000000</v>
+        <v>4932000000</v>
       </c>
       <c r="Y72" s="1">
-        <v>415000000</v>
+        <v>5901000000</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="B73" s="1">
+        <v>12900000</v>
+      </c>
+      <c r="C73" s="1">
+        <v>18153000</v>
+      </c>
+      <c r="D73" s="1">
+        <v>19995000</v>
       </c>
       <c r="E73" s="1">
-        <v>-8460000</v>
+        <v>26021000</v>
       </c>
       <c r="F73" s="1">
-        <v>7053000</v>
+        <v>20238000</v>
       </c>
       <c r="G73" s="1">
-        <v>-2311000</v>
+        <v>21366000</v>
       </c>
       <c r="H73" s="1">
-        <v>-25149000</v>
+        <v>20686000</v>
       </c>
       <c r="I73" s="1">
-        <v>18895000</v>
+        <v>30902000</v>
       </c>
       <c r="J73" s="1">
-        <v>-42509000</v>
+        <v>72809000</v>
       </c>
       <c r="K73" s="1">
-        <v>-104654000</v>
+        <v>198824000</v>
       </c>
       <c r="L73" s="1">
-        <v>-232000000</v>
+        <v>232000000</v>
       </c>
       <c r="M73" s="1">
-        <v>-89000000</v>
+        <v>239000000</v>
       </c>
       <c r="N73" s="1">
-        <v>3000000</v>
+        <v>310000000</v>
       </c>
       <c r="O73" s="1">
-        <v>-137000000</v>
+        <v>299000000</v>
       </c>
       <c r="P73" s="1">
-        <v>-61000000</v>
+        <v>295000000</v>
       </c>
       <c r="Q73" s="1">
-        <v>-193000000</v>
+        <v>291000000</v>
       </c>
       <c r="R73" s="1">
-        <v>-104000000</v>
+        <v>278000000</v>
       </c>
       <c r="S73" s="1">
-        <v>-156000000</v>
+        <v>247000000</v>
       </c>
       <c r="T73" s="1">
-        <v>-14000000</v>
+        <v>229000000</v>
       </c>
       <c r="U73" s="1">
-        <v>-1221000000</v>
+        <v>240000000</v>
       </c>
       <c r="V73" s="1">
-        <v>-226000000</v>
+        <v>220000000</v>
       </c>
       <c r="W73" s="1">
-        <v>17000000</v>
+        <v>405000000</v>
       </c>
       <c r="X73" s="1">
-        <v>-157000000</v>
+        <v>358000000</v>
       </c>
       <c r="Y73" s="1">
-        <v>-865000000</v>
+        <v>415000000</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>92</v>
@@ -6917,331 +6965,331 @@
       <c r="D74" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>92</v>
+      <c r="E74" s="1">
+        <v>-8460000</v>
+      </c>
+      <c r="F74" s="1">
+        <v>7053000</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-2311000</v>
+      </c>
+      <c r="H74" s="1">
+        <v>-25149000</v>
+      </c>
+      <c r="I74" s="1">
+        <v>18895000</v>
+      </c>
+      <c r="J74" s="1">
+        <v>-42509000</v>
       </c>
       <c r="K74" s="1">
-        <v>188256000</v>
+        <v>-104654000</v>
       </c>
       <c r="L74" s="1">
-        <v>278000000</v>
+        <v>-232000000</v>
       </c>
       <c r="M74" s="1">
-        <v>317000000</v>
+        <v>-89000000</v>
       </c>
       <c r="N74" s="1">
-        <v>445000000</v>
+        <v>3000000</v>
       </c>
       <c r="O74" s="1">
-        <v>497000000</v>
+        <v>-137000000</v>
       </c>
       <c r="P74" s="1">
-        <v>451000000</v>
+        <v>-61000000</v>
       </c>
       <c r="Q74" s="1">
-        <v>448000000</v>
+        <v>-193000000</v>
       </c>
       <c r="R74" s="1">
-        <v>453000000</v>
+        <v>-104000000</v>
       </c>
       <c r="S74" s="1">
-        <v>514000000</v>
+        <v>-156000000</v>
       </c>
       <c r="T74" s="1">
-        <v>521000000</v>
+        <v>-14000000</v>
       </c>
       <c r="U74" s="1">
-        <v>542000000</v>
+        <v>-1221000000</v>
       </c>
       <c r="V74" s="1">
-        <v>564000000</v>
+        <v>-226000000</v>
       </c>
       <c r="W74" s="1">
-        <v>567000000</v>
+        <v>17000000</v>
       </c>
       <c r="X74" s="1">
-        <v>622000000</v>
+        <v>-157000000</v>
       </c>
       <c r="Y74" s="1">
-        <v>734000000</v>
+        <v>-865000000</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="C75" s="1">
-        <v>38656000</v>
-      </c>
-      <c r="D75" s="1">
-        <v>-227000</v>
-      </c>
-      <c r="E75" s="1">
-        <v>32266000</v>
-      </c>
-      <c r="F75" s="1">
-        <v>14219000</v>
-      </c>
-      <c r="G75" s="1">
-        <v>17079000</v>
-      </c>
-      <c r="H75" s="1">
-        <v>-5215000</v>
-      </c>
-      <c r="I75" s="1">
-        <v>-107134000</v>
-      </c>
-      <c r="J75" s="1">
-        <v>199724000</v>
+        <v>68</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="K75" s="1">
-        <v>-380344000</v>
+        <v>188256000</v>
       </c>
       <c r="L75" s="1">
-        <v>111000000</v>
+        <v>278000000</v>
       </c>
       <c r="M75" s="1">
-        <v>-280000000</v>
+        <v>317000000</v>
       </c>
       <c r="N75" s="1">
-        <v>-294000000</v>
+        <v>445000000</v>
       </c>
       <c r="O75" s="1">
-        <v>-383000000</v>
+        <v>497000000</v>
       </c>
       <c r="P75" s="1">
-        <v>-559000000</v>
+        <v>451000000</v>
       </c>
       <c r="Q75" s="1">
-        <v>-6000000</v>
+        <v>448000000</v>
       </c>
       <c r="R75" s="1">
-        <v>-320000000</v>
+        <v>453000000</v>
       </c>
       <c r="S75" s="1">
-        <v>-542000000</v>
+        <v>514000000</v>
       </c>
       <c r="T75" s="1">
-        <v>-753000000</v>
+        <v>521000000</v>
       </c>
       <c r="U75" s="1">
-        <v>-152000000</v>
+        <v>542000000</v>
       </c>
       <c r="V75" s="1">
-        <v>-158000000</v>
+        <v>564000000</v>
       </c>
       <c r="W75" s="1">
-        <v>-608000000</v>
+        <v>567000000</v>
       </c>
       <c r="X75" s="1">
-        <v>169000000</v>
+        <v>622000000</v>
       </c>
       <c r="Y75" s="1">
-        <v>658000000</v>
+        <v>734000000</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1">
-        <v>-68800000</v>
+        <v>7000000</v>
       </c>
       <c r="C76" s="1">
-        <v>37393000</v>
+        <v>38656000</v>
       </c>
       <c r="D76" s="1">
-        <v>-22093000</v>
+        <v>-227000</v>
       </c>
       <c r="E76" s="1">
-        <v>-13346000</v>
+        <v>32266000</v>
       </c>
       <c r="F76" s="1">
-        <v>16884000</v>
+        <v>14219000</v>
       </c>
       <c r="G76" s="1">
-        <v>-8045000</v>
+        <v>17079000</v>
       </c>
       <c r="H76" s="1">
-        <v>-27852000</v>
+        <v>-5215000</v>
       </c>
       <c r="I76" s="1">
-        <v>-204577000</v>
+        <v>-107134000</v>
       </c>
       <c r="J76" s="1">
-        <v>-185809000</v>
+        <v>199724000</v>
       </c>
       <c r="K76" s="1">
-        <v>-273199000</v>
+        <v>-380344000</v>
       </c>
       <c r="L76" s="1">
-        <v>339000000</v>
+        <v>111000000</v>
       </c>
       <c r="M76" s="1">
-        <v>-223000000</v>
+        <v>-280000000</v>
       </c>
       <c r="N76" s="1">
-        <v>-364000000</v>
+        <v>-294000000</v>
       </c>
       <c r="O76" s="1">
-        <v>124000000</v>
+        <v>-383000000</v>
       </c>
       <c r="P76" s="1">
-        <v>-292000000</v>
+        <v>-559000000</v>
       </c>
       <c r="Q76" s="1">
-        <v>14000000</v>
+        <v>-6000000</v>
       </c>
       <c r="R76" s="1">
-        <v>78000000</v>
+        <v>-320000000</v>
       </c>
       <c r="S76" s="1">
-        <v>-154000000</v>
+        <v>-542000000</v>
       </c>
       <c r="T76" s="1">
-        <v>-86000000</v>
+        <v>-753000000</v>
       </c>
       <c r="U76" s="1">
-        <v>-521000000</v>
+        <v>-152000000</v>
       </c>
       <c r="V76" s="1">
-        <v>4000000</v>
+        <v>-158000000</v>
       </c>
       <c r="W76" s="1">
-        <v>-433000000</v>
+        <v>-608000000</v>
       </c>
       <c r="X76" s="1">
-        <v>-313000000</v>
+        <v>169000000</v>
       </c>
       <c r="Y76" s="1">
-        <v>-322000000</v>
+        <v>658000000</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y77" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
+      </c>
+      <c r="B77" s="1">
+        <v>-68800000</v>
+      </c>
+      <c r="C77" s="1">
+        <v>37393000</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-22093000</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-13346000</v>
+      </c>
+      <c r="F77" s="1">
+        <v>16884000</v>
+      </c>
+      <c r="G77" s="1">
+        <v>-8045000</v>
+      </c>
+      <c r="H77" s="1">
+        <v>-27852000</v>
+      </c>
+      <c r="I77" s="1">
+        <v>-204577000</v>
+      </c>
+      <c r="J77" s="1">
+        <v>-185809000</v>
+      </c>
+      <c r="K77" s="1">
+        <v>-273199000</v>
+      </c>
+      <c r="L77" s="1">
+        <v>339000000</v>
+      </c>
+      <c r="M77" s="1">
+        <v>-223000000</v>
+      </c>
+      <c r="N77" s="1">
+        <v>-364000000</v>
+      </c>
+      <c r="O77" s="1">
+        <v>124000000</v>
+      </c>
+      <c r="P77" s="1">
+        <v>-292000000</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>14000000</v>
+      </c>
+      <c r="R77" s="1">
+        <v>78000000</v>
+      </c>
+      <c r="S77" s="1">
+        <v>-154000000</v>
+      </c>
+      <c r="T77" s="1">
+        <v>-86000000</v>
+      </c>
+      <c r="U77" s="1">
+        <v>-521000000</v>
+      </c>
+      <c r="V77" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="W77" s="1">
+        <v>-433000000</v>
+      </c>
+      <c r="X77" s="1">
+        <v>-313000000</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>-322000000</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" s="1">
-        <v>72300000</v>
-      </c>
-      <c r="C78" s="1">
-        <v>21242000</v>
-      </c>
-      <c r="D78" s="1">
-        <v>-17885000</v>
-      </c>
-      <c r="E78" s="1">
-        <v>45612000</v>
-      </c>
-      <c r="F78" s="1">
-        <v>-2665000</v>
-      </c>
-      <c r="G78" s="1">
-        <v>25124000</v>
-      </c>
-      <c r="H78" s="1">
-        <v>22637000</v>
-      </c>
-      <c r="I78" s="1">
-        <v>97443000</v>
-      </c>
-      <c r="J78" s="1">
-        <v>385533000</v>
+        <v>34</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>92</v>
@@ -7258,26 +7306,26 @@
       <c r="O78" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P78" s="1">
-        <v>114000000</v>
-      </c>
-      <c r="Q78" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="R78" s="1">
-        <v>-69000000</v>
-      </c>
-      <c r="S78" s="1">
-        <v>14000000</v>
-      </c>
-      <c r="T78" s="1">
-        <v>51000000</v>
-      </c>
-      <c r="U78" s="1">
-        <v>308000000</v>
-      </c>
-      <c r="V78" s="1">
-        <v>43000000</v>
+      <c r="P78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="W78" s="1" t="s">
         <v>92</v>
@@ -7285,398 +7333,398 @@
       <c r="X78" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y78" s="1">
-        <v>342000000</v>
+      <c r="Y78" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B79" s="1">
-        <v>224600000</v>
+        <v>72300000</v>
       </c>
       <c r="C79" s="1">
-        <v>-60194000</v>
+        <v>21242000</v>
       </c>
       <c r="D79" s="1">
-        <v>34383000</v>
+        <v>-17885000</v>
       </c>
       <c r="E79" s="1">
-        <v>-25893000</v>
+        <v>45612000</v>
       </c>
       <c r="F79" s="1">
-        <v>-11801000</v>
+        <v>-2665000</v>
       </c>
       <c r="G79" s="1">
-        <v>-10195000</v>
+        <v>25124000</v>
       </c>
       <c r="H79" s="1">
-        <v>9634000</v>
+        <v>22637000</v>
       </c>
       <c r="I79" s="1">
-        <v>57975000</v>
+        <v>97443000</v>
       </c>
       <c r="J79" s="1">
-        <v>-202394000</v>
-      </c>
-      <c r="K79" s="1">
-        <v>-59764000</v>
-      </c>
-      <c r="L79" s="1">
-        <v>76000000</v>
-      </c>
-      <c r="M79" s="1">
-        <v>-100000000</v>
-      </c>
-      <c r="N79" s="1">
-        <v>53000000</v>
-      </c>
-      <c r="O79" s="1">
-        <v>-174000000</v>
+        <v>385533000</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="P79" s="1">
-        <v>97000000</v>
+        <v>114000000</v>
       </c>
       <c r="Q79" s="1">
-        <v>203000000</v>
+        <v>7000000</v>
       </c>
       <c r="R79" s="1">
-        <v>101000000</v>
+        <v>-69000000</v>
       </c>
       <c r="S79" s="1">
-        <v>98000000</v>
+        <v>14000000</v>
       </c>
       <c r="T79" s="1">
-        <v>-86000000</v>
+        <v>51000000</v>
       </c>
       <c r="U79" s="1">
-        <v>276000000</v>
+        <v>308000000</v>
       </c>
       <c r="V79" s="1">
-        <v>-230000000</v>
-      </c>
-      <c r="W79" s="1">
-        <v>58000000</v>
-      </c>
-      <c r="X79" s="1">
-        <v>487000000</v>
+        <v>43000000</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Y79" s="1">
-        <v>412000000</v>
+        <v>342000000</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="1">
+        <v>224600000</v>
+      </c>
+      <c r="C80" s="1">
+        <v>-60194000</v>
+      </c>
+      <c r="D80" s="1">
+        <v>34383000</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-25893000</v>
+      </c>
+      <c r="F80" s="1">
+        <v>-11801000</v>
+      </c>
+      <c r="G80" s="1">
+        <v>-10195000</v>
+      </c>
+      <c r="H80" s="1">
+        <v>9634000</v>
+      </c>
+      <c r="I80" s="1">
+        <v>57975000</v>
+      </c>
+      <c r="J80" s="1">
+        <v>-202394000</v>
+      </c>
+      <c r="K80" s="1">
+        <v>-59764000</v>
+      </c>
+      <c r="L80" s="1">
+        <v>76000000</v>
+      </c>
+      <c r="M80" s="1">
+        <v>-100000000</v>
+      </c>
+      <c r="N80" s="1">
+        <v>53000000</v>
+      </c>
+      <c r="O80" s="1">
+        <v>-174000000</v>
+      </c>
+      <c r="P80" s="1">
+        <v>97000000</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>203000000</v>
+      </c>
+      <c r="R80" s="1">
+        <v>101000000</v>
+      </c>
+      <c r="S80" s="1">
+        <v>98000000</v>
+      </c>
+      <c r="T80" s="1">
+        <v>-86000000</v>
+      </c>
+      <c r="U80" s="1">
+        <v>276000000</v>
+      </c>
+      <c r="V80" s="1">
+        <v>-230000000</v>
+      </c>
+      <c r="W80" s="1">
+        <v>58000000</v>
+      </c>
+      <c r="X80" s="1">
+        <v>487000000</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>412000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="1">
         <v>-1800000</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C81" s="1">
         <v>100000</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D81" s="1">
         <v>1478000</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E81" s="1">
         <v>10112000</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F81" s="1">
         <v>-2714000</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G81" s="1">
         <v>-11941000</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H81" s="1">
         <v>97895000</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I81" s="1">
         <v>78366000</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J81" s="1">
         <v>168258000</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K81" s="1">
         <v>-309905000</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L81" s="1">
         <v>741000000</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M81" s="1">
         <v>337000000</v>
       </c>
-      <c r="N80" s="1">
+      <c r="N81" s="1">
         <v>-39000000</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O81" s="1">
         <v>213000000</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P81" s="1">
         <v>-344000000</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="Q81" s="1">
         <v>170000000</v>
       </c>
-      <c r="R80" s="1">
+      <c r="R81" s="1">
         <v>-520000000</v>
       </c>
-      <c r="S80" s="1">
+      <c r="S81" s="1">
         <v>-404000000</v>
       </c>
-      <c r="T80" s="1">
+      <c r="T81" s="1">
         <v>-1001000000</v>
       </c>
-      <c r="U80" s="1">
+      <c r="U81" s="1">
         <v>-551000000</v>
       </c>
-      <c r="V80" s="1">
+      <c r="V81" s="1">
         <v>-1630000000</v>
       </c>
-      <c r="W80" s="1">
+      <c r="W81" s="1">
         <v>-1973000000</v>
       </c>
-      <c r="X80" s="1">
+      <c r="X81" s="1">
         <v>-2181000000</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Y81" s="1">
         <v>-1899000000</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+    <row r="82" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B82" s="10">
         <v>53700000</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C82" s="10">
         <v>116326000</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>108607000</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>167373000</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>172045000</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>179595000</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H82" s="10">
         <v>231358000</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I82" s="10">
         <v>254937000</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J82" s="10">
         <v>720884000</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K82" s="10">
         <v>587449000</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L82" s="10">
         <v>1916000000</v>
       </c>
-      <c r="M81" s="10">
+      <c r="M82" s="10">
         <v>1399000000</v>
       </c>
-      <c r="N81" s="10">
+      <c r="N82" s="10">
         <v>2488000000</v>
       </c>
-      <c r="O81" s="10">
+      <c r="O82" s="10">
         <v>2826000000</v>
       </c>
-      <c r="P81" s="10">
+      <c r="P82" s="10">
         <v>2240000000</v>
       </c>
-      <c r="Q81" s="10">
+      <c r="Q82" s="10">
         <v>3642000000</v>
       </c>
-      <c r="R81" s="10">
+      <c r="R82" s="10">
         <v>3081000000</v>
       </c>
-      <c r="S81" s="10">
+      <c r="S82" s="10">
         <v>3004000000</v>
       </c>
-      <c r="T81" s="10">
+      <c r="T82" s="10">
         <v>2154000000</v>
       </c>
-      <c r="U81" s="10">
+      <c r="U82" s="10">
         <v>3828000000</v>
       </c>
-      <c r="V81" s="10">
+      <c r="V82" s="10">
         <v>3075000000</v>
       </c>
-      <c r="W81" s="10">
+      <c r="W82" s="10">
         <v>2884000000</v>
       </c>
-      <c r="X81" s="10">
+      <c r="X82" s="10">
         <v>3743000000</v>
       </c>
-      <c r="Y81" s="10">
+      <c r="Y82" s="10">
         <v>4944000000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B82" s="1">
-        <v>-8400000</v>
-      </c>
-      <c r="C82" s="1">
-        <v>-18925000</v>
-      </c>
-      <c r="D82" s="1">
-        <v>-32761000</v>
-      </c>
-      <c r="E82" s="1">
-        <v>-40479000</v>
-      </c>
-      <c r="F82" s="1">
-        <v>-42827000</v>
-      </c>
-      <c r="G82" s="1">
-        <v>-13453000</v>
-      </c>
-      <c r="H82" s="1">
-        <v>-25592000</v>
-      </c>
-      <c r="I82" s="1">
-        <v>-55154000</v>
-      </c>
-      <c r="J82" s="1">
-        <v>-83993000</v>
-      </c>
-      <c r="K82" s="1">
-        <v>-111317000</v>
-      </c>
-      <c r="L82" s="1">
-        <v>-77000000</v>
-      </c>
-      <c r="M82" s="1">
-        <v>-67000000</v>
-      </c>
-      <c r="N82" s="1">
-        <v>-132000000</v>
-      </c>
-      <c r="O82" s="1">
-        <v>-247000000</v>
-      </c>
-      <c r="P82" s="1">
-        <v>-150000000</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>-94000000</v>
-      </c>
-      <c r="R82" s="1">
-        <v>-66000000</v>
-      </c>
-      <c r="S82" s="1">
-        <v>-221000000</v>
-      </c>
-      <c r="T82" s="1">
-        <v>-119000000</v>
-      </c>
-      <c r="U82" s="1">
-        <v>-155000000</v>
-      </c>
-      <c r="V82" s="1">
-        <v>-204000000</v>
-      </c>
-      <c r="W82" s="1">
-        <v>-254000000</v>
-      </c>
-      <c r="X82" s="1">
-        <v>-194000000</v>
-      </c>
-      <c r="Y82" s="1">
-        <v>-341000000</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
+      </c>
+      <c r="B83" s="1">
+        <v>-8400000</v>
+      </c>
+      <c r="C83" s="1">
+        <v>-18925000</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-32761000</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-40479000</v>
       </c>
       <c r="F83" s="1">
-        <v>-1733000</v>
+        <v>-42827000</v>
       </c>
       <c r="G83" s="1">
-        <v>-8930000</v>
+        <v>-13453000</v>
       </c>
       <c r="H83" s="1">
-        <v>-74000</v>
+        <v>-25592000</v>
       </c>
       <c r="I83" s="1">
-        <v>-275218000</v>
+        <v>-55154000</v>
       </c>
       <c r="J83" s="1">
-        <v>-272353000</v>
+        <v>-83993000</v>
       </c>
       <c r="K83" s="1">
-        <v>-591765000</v>
+        <v>-111317000</v>
       </c>
       <c r="L83" s="1">
-        <v>-34000000</v>
+        <v>-77000000</v>
       </c>
       <c r="M83" s="1">
-        <v>-5755000000</v>
+        <v>-67000000</v>
       </c>
       <c r="N83" s="1">
-        <v>-21000000</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>-132000000</v>
+      </c>
+      <c r="O83" s="1">
+        <v>-247000000</v>
       </c>
       <c r="P83" s="1">
-        <v>-267000000</v>
+        <v>-150000000</v>
       </c>
       <c r="Q83" s="1">
-        <v>-298000000</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>-94000000</v>
+      </c>
+      <c r="R83" s="1">
+        <v>-66000000</v>
       </c>
       <c r="S83" s="1">
-        <v>-273000000</v>
+        <v>-221000000</v>
       </c>
       <c r="T83" s="1">
-        <v>-30000000</v>
+        <v>-119000000</v>
       </c>
       <c r="U83" s="1">
-        <v>-102000000</v>
+        <v>-155000000</v>
       </c>
       <c r="V83" s="1">
-        <v>-699000000</v>
+        <v>-204000000</v>
       </c>
       <c r="W83" s="1">
-        <v>-1510000000</v>
-      </c>
-      <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>-254000000</v>
+      </c>
+      <c r="X83" s="1">
+        <v>-194000000</v>
       </c>
       <c r="Y83" s="1">
-        <v>-1106000000</v>
+        <v>-341000000</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>92</v>
@@ -7684,1441 +7732,1518 @@
       <c r="C84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D84" s="1">
-        <v>-12899000</v>
-      </c>
-      <c r="E84" s="1">
-        <v>-126576000</v>
+      <c r="D84" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F84" s="1">
-        <v>-52245000</v>
+        <v>-1733000</v>
       </c>
       <c r="G84" s="1">
-        <v>-177775000</v>
+        <v>-8930000</v>
       </c>
       <c r="H84" s="1">
-        <v>-97636000</v>
+        <v>-74000</v>
       </c>
       <c r="I84" s="1">
-        <v>-51579000</v>
+        <v>-275218000</v>
       </c>
       <c r="J84" s="1">
-        <v>-212629000</v>
+        <v>-272353000</v>
       </c>
       <c r="K84" s="1">
-        <v>-638328000</v>
+        <v>-591765000</v>
       </c>
       <c r="L84" s="1">
-        <v>-420000000</v>
+        <v>-34000000</v>
       </c>
       <c r="M84" s="1">
-        <v>-73000000</v>
+        <v>-5755000000</v>
       </c>
       <c r="N84" s="1">
-        <v>-708000000</v>
-      </c>
-      <c r="O84" s="1">
-        <v>-204000000</v>
+        <v>-21000000</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="P84" s="1">
-        <v>-617000000</v>
+        <v>-267000000</v>
       </c>
       <c r="Q84" s="1">
-        <v>-460000000</v>
-      </c>
-      <c r="R84" s="1">
-        <v>-492000000</v>
+        <v>-298000000</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="S84" s="1">
-        <v>-493000000</v>
+        <v>-273000000</v>
       </c>
       <c r="T84" s="1">
-        <v>-451000000</v>
+        <v>-30000000</v>
       </c>
       <c r="U84" s="1">
-        <v>-528000000</v>
+        <v>-102000000</v>
       </c>
       <c r="V84" s="1">
-        <v>-378000000</v>
+        <v>-699000000</v>
       </c>
       <c r="W84" s="1">
-        <v>-803000000</v>
-      </c>
-      <c r="X84" s="1">
-        <v>-430000000</v>
+        <v>-1510000000</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Y84" s="1">
-        <v>-910000000</v>
+        <v>-1106000000</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" s="1">
-        <v>3400000</v>
-      </c>
-      <c r="C85" s="1">
-        <v>29000</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-12899000</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-126576000</v>
+      </c>
+      <c r="F85" s="1">
+        <v>-52245000</v>
       </c>
       <c r="G85" s="1">
-        <v>180509000</v>
+        <v>-177775000</v>
       </c>
       <c r="H85" s="1">
-        <v>192254000</v>
+        <v>-97636000</v>
       </c>
       <c r="I85" s="1">
-        <v>169865000</v>
+        <v>-51579000</v>
       </c>
       <c r="J85" s="1">
-        <v>25662000</v>
+        <v>-212629000</v>
       </c>
       <c r="K85" s="1">
-        <v>265561000</v>
+        <v>-638328000</v>
       </c>
       <c r="L85" s="1">
-        <v>122000000</v>
+        <v>-420000000</v>
       </c>
       <c r="M85" s="1">
-        <v>287000000</v>
+        <v>-73000000</v>
       </c>
       <c r="N85" s="1">
-        <v>234000000</v>
+        <v>-708000000</v>
       </c>
       <c r="O85" s="1">
-        <v>247000000</v>
+        <v>-204000000</v>
       </c>
       <c r="P85" s="1">
-        <v>695000000</v>
+        <v>-617000000</v>
       </c>
       <c r="Q85" s="1">
-        <v>286000000</v>
+        <v>-460000000</v>
       </c>
       <c r="R85" s="1">
-        <v>654000000</v>
+        <v>-492000000</v>
       </c>
       <c r="S85" s="1">
-        <v>456000000</v>
+        <v>-493000000</v>
       </c>
       <c r="T85" s="1">
-        <v>378000000</v>
+        <v>-451000000</v>
       </c>
       <c r="U85" s="1">
-        <v>166000000</v>
+        <v>-528000000</v>
       </c>
       <c r="V85" s="1">
-        <v>449000000</v>
+        <v>-378000000</v>
       </c>
       <c r="W85" s="1">
-        <v>417000000</v>
+        <v>-803000000</v>
       </c>
       <c r="X85" s="1">
-        <v>187000000</v>
+        <v>-430000000</v>
       </c>
       <c r="Y85" s="1">
-        <v>429000000</v>
+        <v>-910000000</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3400000</v>
+      </c>
+      <c r="C86" s="1">
+        <v>29000</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="1">
+        <v>180509000</v>
+      </c>
+      <c r="H86" s="1">
+        <v>192254000</v>
+      </c>
+      <c r="I86" s="1">
+        <v>169865000</v>
+      </c>
+      <c r="J86" s="1">
+        <v>25662000</v>
+      </c>
+      <c r="K86" s="1">
+        <v>265561000</v>
+      </c>
+      <c r="L86" s="1">
+        <v>122000000</v>
+      </c>
+      <c r="M86" s="1">
+        <v>287000000</v>
+      </c>
+      <c r="N86" s="1">
+        <v>234000000</v>
+      </c>
+      <c r="O86" s="1">
+        <v>247000000</v>
+      </c>
+      <c r="P86" s="1">
+        <v>695000000</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>286000000</v>
+      </c>
+      <c r="R86" s="1">
+        <v>654000000</v>
+      </c>
+      <c r="S86" s="1">
+        <v>456000000</v>
+      </c>
+      <c r="T86" s="1">
+        <v>378000000</v>
+      </c>
+      <c r="U86" s="1">
+        <v>166000000</v>
+      </c>
+      <c r="V86" s="1">
+        <v>449000000</v>
+      </c>
+      <c r="W86" s="1">
+        <v>417000000</v>
+      </c>
+      <c r="X86" s="1">
+        <v>187000000</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>429000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H86" s="1">
+      <c r="B87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87" s="1">
         <v>-61925000</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I87" s="1">
         <v>-7700000</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J87" s="1">
         <v>546878000</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K87" s="1">
         <v>7017000</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L87" s="1">
         <v>15000000</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M87" s="1">
         <v>89000000</v>
       </c>
-      <c r="N86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P86" s="1">
+      <c r="N87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P87" s="1">
         <v>73000000</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="Q87" s="1">
         <v>83000000</v>
       </c>
-      <c r="R86" s="1">
+      <c r="R87" s="1">
         <v>143000000</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S87" s="1">
         <v>66000000</v>
       </c>
-      <c r="T86" s="1">
+      <c r="T87" s="1">
         <v>34000000</v>
       </c>
-      <c r="U86" s="1">
+      <c r="U87" s="1">
         <v>32000000</v>
       </c>
-      <c r="V86" s="1">
+      <c r="V87" s="1">
         <v>24000000</v>
       </c>
-      <c r="W86" s="1">
+      <c r="W87" s="1">
         <v>136000000</v>
       </c>
-      <c r="X86" s="1">
+      <c r="X87" s="1">
         <v>183000000</v>
       </c>
-      <c r="Y86" s="1">
+      <c r="Y87" s="1">
         <v>-9000000</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+    <row r="88" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B88" s="10">
         <v>-5000000</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C88" s="10">
         <v>-18896000</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>-45660000</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>-167055000</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>-96805000</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>-19649000</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H88" s="10">
         <v>7027000</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I88" s="10">
         <v>-219786000</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J88" s="10">
         <v>3565000</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K88" s="10">
         <v>-1068832000</v>
       </c>
-      <c r="L87" s="10">
+      <c r="L88" s="10">
         <v>-394000000</v>
       </c>
-      <c r="M87" s="10">
+      <c r="M88" s="10">
         <v>-5519000000</v>
       </c>
-      <c r="N87" s="10">
+      <c r="N88" s="10">
         <v>-627000000</v>
       </c>
-      <c r="O87" s="10">
+      <c r="O88" s="10">
         <v>-204000000</v>
       </c>
-      <c r="P87" s="10">
+      <c r="P88" s="10">
         <v>-266000000</v>
       </c>
-      <c r="Q87" s="10">
+      <c r="Q88" s="10">
         <v>-483000000</v>
       </c>
-      <c r="R87" s="10">
+      <c r="R88" s="10">
         <v>239000000</v>
       </c>
-      <c r="S87" s="10">
+      <c r="S88" s="10">
         <v>-465000000</v>
       </c>
-      <c r="T87" s="10">
+      <c r="T88" s="10">
         <v>-188000000</v>
       </c>
-      <c r="U87" s="10">
+      <c r="U88" s="10">
         <v>-587000000</v>
       </c>
-      <c r="V87" s="10">
+      <c r="V88" s="10">
         <v>-808000000</v>
       </c>
-      <c r="W87" s="10">
+      <c r="W88" s="10">
         <v>-2014000000</v>
       </c>
-      <c r="X87" s="10">
+      <c r="X88" s="10">
         <v>-254000000</v>
       </c>
-      <c r="Y87" s="10">
+      <c r="Y88" s="10">
         <v>-1937000000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="1">
-        <v>-28200000</v>
-      </c>
-      <c r="C88" s="1">
-        <v>-168800000</v>
-      </c>
-      <c r="D88" s="1">
-        <v>-28200000</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" s="1">
-        <v>-842000</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I88" s="1">
-        <v>-523680000</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L88" s="1">
-        <v>-401000000</v>
-      </c>
-      <c r="M88" s="1">
-        <v>-7000000</v>
-      </c>
-      <c r="N88" s="1">
-        <v>-2310000000</v>
-      </c>
-      <c r="O88" s="1">
-        <v>-792000000</v>
-      </c>
-      <c r="P88" s="1">
-        <v>-500000000</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>-1260000000</v>
-      </c>
-      <c r="R88" s="1">
-        <v>-488000000</v>
-      </c>
-      <c r="S88" s="1">
-        <v>-750000000</v>
-      </c>
-      <c r="T88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U88" s="1">
-        <v>-700000000</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W88" s="1">
-        <v>-1000000000</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y88" s="1">
-        <v>-750000000</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1">
-        <v>34200000</v>
+        <v>-28200000</v>
       </c>
       <c r="C89" s="1">
-        <v>118245000</v>
+        <v>-168800000</v>
       </c>
       <c r="D89" s="1">
-        <v>1229000</v>
-      </c>
-      <c r="E89" s="1">
-        <v>1940000</v>
-      </c>
-      <c r="F89" s="1">
-        <v>5038000</v>
+        <v>-28200000</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G89" s="1">
-        <v>7538000</v>
-      </c>
-      <c r="H89" s="1">
-        <v>15369000</v>
+        <v>-842000</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="I89" s="1">
-        <v>15847000</v>
-      </c>
-      <c r="J89" s="1">
-        <v>9332000</v>
-      </c>
-      <c r="K89" s="1">
-        <v>76842000</v>
+        <v>-523680000</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="L89" s="1">
-        <v>6000000</v>
+        <v>-401000000</v>
       </c>
       <c r="M89" s="1">
-        <v>2804000000</v>
+        <v>-7000000</v>
       </c>
       <c r="N89" s="1">
-        <v>6000000</v>
+        <v>-2310000000</v>
       </c>
       <c r="O89" s="1">
-        <v>5000000</v>
+        <v>-792000000</v>
       </c>
       <c r="P89" s="1">
-        <v>7000000</v>
+        <v>-500000000</v>
       </c>
       <c r="Q89" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S89" s="1" t="s">
-        <v>92</v>
+        <v>-1260000000</v>
+      </c>
+      <c r="R89" s="1">
+        <v>-488000000</v>
+      </c>
+      <c r="S89" s="1">
+        <v>-750000000</v>
       </c>
       <c r="T89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U89" s="1" t="s">
-        <v>92</v>
+      <c r="U89" s="1">
+        <v>-700000000</v>
       </c>
       <c r="V89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W89" s="1" t="s">
-        <v>92</v>
+      <c r="W89" s="1">
+        <v>-1000000000</v>
       </c>
       <c r="X89" s="1" t="s">
         <v>92</v>
       </c>
       <c r="Y89" s="1">
-        <v>387000000</v>
+        <v>-750000000</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1">
-        <v>-200000</v>
+        <v>34200000</v>
       </c>
       <c r="C90" s="1">
-        <v>-550000</v>
+        <v>118245000</v>
       </c>
       <c r="D90" s="1">
-        <v>-16000</v>
+        <v>1229000</v>
       </c>
       <c r="E90" s="1">
-        <v>-7407000</v>
+        <v>1940000</v>
       </c>
       <c r="F90" s="1">
-        <v>-12444000</v>
+        <v>5038000</v>
       </c>
       <c r="G90" s="1">
-        <v>-83418000</v>
+        <v>7538000</v>
       </c>
       <c r="H90" s="1">
-        <v>-57607000</v>
+        <v>15369000</v>
       </c>
       <c r="I90" s="1">
-        <v>-77466000</v>
+        <v>15847000</v>
       </c>
       <c r="J90" s="1">
-        <v>-30973000</v>
+        <v>9332000</v>
       </c>
       <c r="K90" s="1">
-        <v>-383310000</v>
+        <v>76842000</v>
       </c>
       <c r="L90" s="1">
-        <v>-46000000</v>
+        <v>6000000</v>
       </c>
       <c r="M90" s="1">
-        <v>-46000000</v>
+        <v>2804000000</v>
       </c>
       <c r="N90" s="1">
-        <v>-264000000</v>
+        <v>6000000</v>
       </c>
       <c r="O90" s="1">
-        <v>-2885000000</v>
+        <v>5000000</v>
       </c>
       <c r="P90" s="1">
-        <v>-1645000000</v>
+        <v>7000000</v>
       </c>
       <c r="Q90" s="1">
-        <v>-1243000000</v>
-      </c>
-      <c r="R90" s="1">
-        <v>-1344000000</v>
-      </c>
-      <c r="S90" s="1">
-        <v>-1331000000</v>
-      </c>
-      <c r="T90" s="1">
-        <v>-1399000000</v>
-      </c>
-      <c r="U90" s="1">
-        <v>-1421000000</v>
-      </c>
-      <c r="V90" s="1">
-        <v>-2087000000</v>
-      </c>
-      <c r="W90" s="1">
-        <v>-1911000000</v>
-      </c>
-      <c r="X90" s="1">
-        <v>-1809000000</v>
+        <v>7000000</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="Y90" s="1">
-        <v>-1485000000</v>
+        <v>387000000</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1">
-        <v>-12300000</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>-200000</v>
+      </c>
+      <c r="C91" s="1">
+        <v>-550000</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-7407000</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-12444000</v>
       </c>
       <c r="G91" s="1">
-        <v>-25614000</v>
+        <v>-83418000</v>
       </c>
       <c r="H91" s="1">
-        <v>-63660000</v>
+        <v>-57607000</v>
       </c>
       <c r="I91" s="1">
-        <v>-76606000</v>
+        <v>-77466000</v>
       </c>
       <c r="J91" s="1">
-        <v>-135665000</v>
+        <v>-30973000</v>
       </c>
       <c r="K91" s="1">
-        <v>-353463000</v>
+        <v>-383310000</v>
       </c>
       <c r="L91" s="1">
-        <v>-419000000</v>
+        <v>-46000000</v>
       </c>
       <c r="M91" s="1">
-        <v>-397000000</v>
+        <v>-46000000</v>
       </c>
       <c r="N91" s="1">
-        <v>-776000000</v>
+        <v>-264000000</v>
       </c>
       <c r="O91" s="1">
-        <v>-1014000000</v>
+        <v>-2885000000</v>
       </c>
       <c r="P91" s="1">
-        <v>-1060000000</v>
+        <v>-1645000000</v>
       </c>
       <c r="Q91" s="1">
-        <v>-1168000000</v>
+        <v>-1243000000</v>
       </c>
       <c r="R91" s="1">
-        <v>-1338000000</v>
+        <v>-1344000000</v>
       </c>
       <c r="S91" s="1">
-        <v>-1476000000</v>
+        <v>-1331000000</v>
       </c>
       <c r="T91" s="1">
-        <v>-1545000000</v>
+        <v>-1399000000</v>
       </c>
       <c r="U91" s="1">
-        <v>-1662000000</v>
+        <v>-1421000000</v>
       </c>
       <c r="V91" s="1">
-        <v>-1968000000</v>
+        <v>-2087000000</v>
       </c>
       <c r="W91" s="1">
-        <v>-2096000000</v>
+        <v>-1911000000</v>
       </c>
       <c r="X91" s="1">
-        <v>-2260000000</v>
+        <v>-1809000000</v>
       </c>
       <c r="Y91" s="1">
-        <v>-2547000000</v>
+        <v>-1485000000</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="1">
+        <v>-12300000</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="1">
+        <v>-25614000</v>
+      </c>
+      <c r="H92" s="1">
+        <v>-63660000</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-76606000</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-135665000</v>
+      </c>
+      <c r="K92" s="1">
+        <v>-353463000</v>
+      </c>
+      <c r="L92" s="1">
+        <v>-419000000</v>
+      </c>
+      <c r="M92" s="1">
+        <v>-397000000</v>
+      </c>
+      <c r="N92" s="1">
+        <v>-776000000</v>
+      </c>
+      <c r="O92" s="1">
+        <v>-1014000000</v>
+      </c>
+      <c r="P92" s="1">
+        <v>-1060000000</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>-1168000000</v>
+      </c>
+      <c r="R92" s="1">
+        <v>-1338000000</v>
+      </c>
+      <c r="S92" s="1">
+        <v>-1476000000</v>
+      </c>
+      <c r="T92" s="1">
+        <v>-1545000000</v>
+      </c>
+      <c r="U92" s="1">
+        <v>-1662000000</v>
+      </c>
+      <c r="V92" s="1">
+        <v>-1968000000</v>
+      </c>
+      <c r="W92" s="1">
+        <v>-2096000000</v>
+      </c>
+      <c r="X92" s="1">
+        <v>-2260000000</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>-2547000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B93" s="1">
         <v>2100000</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C93" s="1">
         <v>-2646000</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D93" s="1">
         <v>-91000</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E93" s="1">
         <v>-696000</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F93" s="1">
         <v>-766000</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" s="1">
+      <c r="G93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H93" s="1">
         <v>6258000</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I93" s="1">
         <v>657637000</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J93" s="1">
         <v>72405000</v>
       </c>
-      <c r="K92" s="1">
+      <c r="K93" s="1">
         <v>1618792000</v>
       </c>
-      <c r="L92" s="1">
+      <c r="L93" s="1">
         <v>-27000000</v>
       </c>
-      <c r="M92" s="1">
+      <c r="M93" s="1">
         <v>4395000000</v>
       </c>
-      <c r="N92" s="1">
+      <c r="N93" s="1">
         <v>174000000</v>
       </c>
-      <c r="O92" s="1">
+      <c r="O93" s="1">
         <v>2201000000</v>
       </c>
-      <c r="P92" s="1">
+      <c r="P93" s="1">
         <v>2254000000</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="Q93" s="1">
         <v>272000000</v>
       </c>
-      <c r="R92" s="1">
+      <c r="R93" s="1">
         <v>1315000000</v>
       </c>
-      <c r="S92" s="1">
+      <c r="S93" s="1">
         <v>1493000000</v>
       </c>
-      <c r="T92" s="1">
+      <c r="T93" s="1">
         <v>1259000000</v>
       </c>
-      <c r="U92" s="1">
+      <c r="U93" s="1">
         <v>1153000000</v>
       </c>
-      <c r="V92" s="1">
+      <c r="V93" s="1">
         <v>1290000000</v>
       </c>
-      <c r="W92" s="1">
+      <c r="W93" s="1">
         <v>2424000000</v>
       </c>
-      <c r="X92" s="1">
+      <c r="X93" s="1">
         <v>4313000000</v>
       </c>
-      <c r="Y92" s="1">
+      <c r="Y93" s="1">
         <v>2108000000</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+    <row r="94" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B94" s="10">
         <v>-4400000</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C94" s="10">
         <v>-53751000</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D94" s="10">
         <v>-27078000</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E94" s="10">
         <v>-6163000</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F94" s="10">
         <v>-8172000</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G94" s="10">
         <v>-102336000</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H94" s="10">
         <v>-99640000</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I94" s="10">
         <v>-4268000</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J94" s="10">
         <v>-84901000</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K94" s="10">
         <v>958861000</v>
       </c>
-      <c r="L93" s="10">
+      <c r="L94" s="10">
         <v>-887000000</v>
       </c>
-      <c r="M93" s="10">
+      <c r="M94" s="10">
         <v>6749000000</v>
       </c>
-      <c r="N93" s="10">
+      <c r="N94" s="10">
         <v>-3170000000</v>
       </c>
-      <c r="O93" s="10">
+      <c r="O94" s="10">
         <v>-2485000000</v>
       </c>
-      <c r="P93" s="10">
+      <c r="P94" s="10">
         <v>-944000000</v>
       </c>
-      <c r="Q93" s="10">
+      <c r="Q94" s="10">
         <v>-3392000000</v>
       </c>
-      <c r="R93" s="10">
+      <c r="R94" s="10">
         <v>-1855000000</v>
       </c>
-      <c r="S93" s="10">
+      <c r="S94" s="10">
         <v>-2064000000</v>
       </c>
-      <c r="T93" s="10">
+      <c r="T94" s="10">
         <v>-1685000000</v>
       </c>
-      <c r="U93" s="10">
+      <c r="U94" s="10">
         <v>-2630000000</v>
       </c>
-      <c r="V93" s="10">
+      <c r="V94" s="10">
         <v>-2765000000</v>
       </c>
-      <c r="W93" s="10">
+      <c r="W94" s="10">
         <v>-2583000000</v>
       </c>
-      <c r="X93" s="10">
+      <c r="X94" s="10">
         <v>244000000</v>
       </c>
-      <c r="Y93" s="10">
+      <c r="Y94" s="10">
         <v>-2287000000</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="95" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="B95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="1">
         <v>-408000</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E95" s="1">
         <v>-294000</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F95" s="1">
         <v>1715000</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G95" s="1">
         <v>3097000</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H95" s="1">
         <v>2987000</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I95" s="1">
         <v>-4333000</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J95" s="1">
         <v>36533000</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K95" s="1">
         <v>18418000</v>
       </c>
-      <c r="L94" s="1">
+      <c r="L95" s="1">
         <v>-259000000</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M95" s="1">
         <v>47000000</v>
       </c>
-      <c r="N94" s="1">
+      <c r="N95" s="1">
         <v>-32000000</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O95" s="1">
         <v>2000000</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P95" s="1">
         <v>70000000</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="Q95" s="1">
         <v>17000000</v>
       </c>
-      <c r="R94" s="1">
+      <c r="R95" s="1">
         <v>-132000000</v>
       </c>
-      <c r="S94" s="1">
+      <c r="S95" s="1">
         <v>-115000000</v>
       </c>
-      <c r="T94" s="1">
+      <c r="T95" s="1">
         <v>-273000000</v>
       </c>
-      <c r="U94" s="1">
+      <c r="U95" s="1">
         <v>192000000</v>
       </c>
-      <c r="V94" s="1">
+      <c r="V95" s="1">
         <v>-93000000</v>
       </c>
-      <c r="W94" s="1">
+      <c r="W95" s="1">
         <v>54000000</v>
       </c>
-      <c r="X94" s="1">
+      <c r="X95" s="1">
         <v>102000000</v>
       </c>
-      <c r="Y94" s="1">
+      <c r="Y95" s="1">
         <v>-61000000</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+    <row r="96" spans="1:25" ht="19" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B96" s="10">
         <v>44400000</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C96" s="10">
         <v>43679000</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D96" s="10">
         <v>35461000</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E96" s="10">
         <v>-6139000</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F96" s="10">
         <v>68783000</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G96" s="10">
         <v>60707000</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H96" s="10">
         <v>141732000</v>
       </c>
-      <c r="I95" s="10">
+      <c r="I96" s="10">
         <v>26550000</v>
       </c>
-      <c r="J95" s="10">
+      <c r="J96" s="10">
         <v>676081000</v>
       </c>
-      <c r="K95" s="10">
+      <c r="K96" s="10">
         <v>495896000</v>
       </c>
-      <c r="L95" s="10">
+      <c r="L96" s="10">
         <v>376000000</v>
       </c>
-      <c r="M95" s="10">
+      <c r="M96" s="10">
         <v>2676000000</v>
       </c>
-      <c r="N95" s="10">
+      <c r="N96" s="10">
         <v>-1341000000</v>
       </c>
-      <c r="O95" s="10">
+      <c r="O96" s="10">
         <v>139000000</v>
       </c>
-      <c r="P95" s="10">
+      <c r="P96" s="10">
         <v>1100000000</v>
       </c>
-      <c r="Q95" s="10">
+      <c r="Q96" s="10">
         <v>-216000000</v>
       </c>
-      <c r="R95" s="10">
+      <c r="R96" s="10">
         <v>1333000000</v>
       </c>
-      <c r="S95" s="10">
+      <c r="S96" s="10">
         <v>360000000</v>
       </c>
-      <c r="T95" s="10">
+      <c r="T96" s="10">
         <v>8000000</v>
       </c>
-      <c r="U95" s="10">
+      <c r="U96" s="10">
         <v>803000000</v>
       </c>
-      <c r="V95" s="10">
+      <c r="V96" s="10">
         <v>-591000000</v>
       </c>
-      <c r="W95" s="10">
+      <c r="W96" s="10">
         <v>-1659000000</v>
       </c>
-      <c r="X95" s="10">
+      <c r="X96" s="10">
         <v>3835000000</v>
       </c>
-      <c r="Y95" s="10">
+      <c r="Y96" s="10">
         <v>659000000</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="97" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B97" s="1">
         <v>69100000</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C97" s="1">
         <v>113450000</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D97" s="1">
         <v>157129000</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E97" s="1">
         <v>192590000</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F97" s="1">
         <v>186451000</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G97" s="1">
         <v>255234000</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H97" s="1">
         <v>315941000</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I97" s="1">
         <v>457673000</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J97" s="1">
         <v>484223000</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K97" s="1">
         <v>1160304000</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L97" s="1">
         <v>1656000000</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M97" s="1">
         <v>2032000000</v>
       </c>
-      <c r="N96" s="1">
+      <c r="N97" s="1">
         <v>4708000000</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O97" s="1">
         <v>3367000000</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P97" s="1">
         <v>3506000000</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="Q97" s="1">
         <v>4606000000</v>
       </c>
-      <c r="R96" s="1">
+      <c r="R97" s="1">
         <v>4390000000</v>
       </c>
-      <c r="S96" s="1">
+      <c r="S97" s="1">
         <v>5723000000</v>
       </c>
-      <c r="T96" s="1">
+      <c r="T97" s="1">
         <v>6083000000</v>
       </c>
-      <c r="U96" s="1">
+      <c r="U97" s="1">
         <v>6091000000</v>
       </c>
-      <c r="V96" s="1">
+      <c r="V97" s="1">
         <v>7096000000</v>
       </c>
-      <c r="W96" s="1">
+      <c r="W97" s="1">
         <v>6505000000</v>
       </c>
-      <c r="X96" s="1">
+      <c r="X97" s="1">
         <v>4846000000</v>
       </c>
-      <c r="Y96" s="1">
+      <c r="Y97" s="1">
         <v>8681000000</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+    <row r="98" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B98" s="11">
         <v>113500000</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C98" s="11">
         <v>157129000</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D98" s="11">
         <v>192590000</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E98" s="11">
         <v>186451000</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F98" s="11">
         <v>255234000</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G98" s="11">
         <v>315941000</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H98" s="11">
         <v>457673000</v>
       </c>
-      <c r="I97" s="11">
+      <c r="I98" s="11">
         <v>484223000</v>
       </c>
-      <c r="J97" s="11">
+      <c r="J98" s="11">
         <v>1160304000</v>
       </c>
-      <c r="K97" s="11">
+      <c r="K98" s="11">
         <v>1656200000</v>
       </c>
-      <c r="L97" s="11">
+      <c r="L98" s="11">
         <v>2032000000</v>
       </c>
-      <c r="M97" s="11">
+      <c r="M98" s="11">
         <v>4708000000</v>
       </c>
-      <c r="N97" s="11">
+      <c r="N98" s="11">
         <v>3367000000</v>
       </c>
-      <c r="O97" s="11">
+      <c r="O98" s="11">
         <v>3506000000</v>
       </c>
-      <c r="P97" s="11">
+      <c r="P98" s="11">
         <v>4606000000</v>
       </c>
-      <c r="Q97" s="11">
+      <c r="Q98" s="11">
         <v>4390000000</v>
       </c>
-      <c r="R97" s="11">
+      <c r="R98" s="11">
         <v>5723000000</v>
       </c>
-      <c r="S97" s="11">
+      <c r="S98" s="11">
         <v>6083000000</v>
       </c>
-      <c r="T97" s="11">
+      <c r="T98" s="11">
         <v>6091000000</v>
       </c>
-      <c r="U97" s="11">
+      <c r="U98" s="11">
         <v>6894000000</v>
       </c>
-      <c r="V97" s="11">
+      <c r="V98" s="11">
         <v>6505000000</v>
       </c>
-      <c r="W97" s="11">
+      <c r="W98" s="11">
         <v>4846000000</v>
       </c>
-      <c r="X97" s="11">
+      <c r="X98" s="11">
         <v>8681000000</v>
       </c>
-      <c r="Y97" s="11">
+      <c r="Y98" s="11">
         <v>9340000000</v>
       </c>
-      <c r="Z97" s="14">
+      <c r="Z98" s="14">
         <v>1</v>
       </c>
-      <c r="AA97" s="14">
+      <c r="AA98" s="14">
         <v>2</v>
       </c>
-      <c r="AB97" s="14">
+      <c r="AB98" s="14">
         <v>2</v>
       </c>
-      <c r="AC97" s="40"/>
-    </row>
-    <row r="98" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="AC98" s="40"/>
+    </row>
+    <row r="99" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B99" s="1">
         <v>45300000</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C99" s="1">
         <v>97401000</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D99" s="1">
         <v>75846000</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E99" s="1">
         <v>126894000</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F99" s="1">
         <v>129218000</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G99" s="1">
         <v>166142000</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H99" s="1">
         <v>205766000</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I99" s="1">
         <v>199783000</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J99" s="1">
         <v>636891000</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K99" s="1">
         <v>476132000</v>
       </c>
-      <c r="L98" s="1">
+      <c r="L99" s="1">
         <v>1839000000</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M99" s="1">
         <v>1332000000</v>
       </c>
-      <c r="N98" s="1">
+      <c r="N99" s="1">
         <v>2356000000</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O99" s="1">
         <v>2579000000</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P99" s="1">
         <v>2090000000</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="Q99" s="1">
         <v>3548000000</v>
       </c>
-      <c r="R98" s="1">
+      <c r="R99" s="1">
         <v>3015000000</v>
       </c>
-      <c r="S98" s="1">
+      <c r="S99" s="1">
         <v>2783000000</v>
       </c>
-      <c r="T98" s="1">
+      <c r="T99" s="1">
         <v>2035000000</v>
       </c>
-      <c r="U98" s="1">
+      <c r="U99" s="1">
         <v>3673000000</v>
       </c>
-      <c r="V98" s="1">
+      <c r="V99" s="1">
         <v>2871000000</v>
       </c>
-      <c r="W98" s="1">
+      <c r="W99" s="1">
         <v>2630000000</v>
       </c>
-      <c r="X98" s="1">
+      <c r="X99" s="1">
         <v>3549000000</v>
       </c>
-      <c r="Y98" s="1">
+      <c r="Y99" s="1">
         <v>4603000000</v>
       </c>
-      <c r="Z98" s="41">
-        <f>Y98*(1+Z99)</f>
-        <v>5661690000</v>
-      </c>
-      <c r="AA98" s="41">
-        <f>Z98*(1+AA99)</f>
-        <v>6963878700</v>
-      </c>
-      <c r="AB98" s="41">
-        <f>(AA98*(1+AB99))/(AD54-AB99)</f>
-        <v>107569031922.92134</v>
-      </c>
-      <c r="AC98" s="42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" s="39" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
+      <c r="Z99" s="41">
+        <f>Y99*(1+Z100)</f>
+        <v>5063300000</v>
+      </c>
+      <c r="AA99" s="41">
+        <f>Z99*(1+AA100)</f>
+        <v>5569630000</v>
+      </c>
+      <c r="AB99" s="41">
+        <f>(AA99*(1+AB100))/(AD55-AB100)</f>
+        <v>85697088651.459305</v>
+      </c>
+      <c r="AC99" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" s="39" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="18" t="e">
+        <f>(B99/A99)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C100" s="18">
+        <f t="shared" ref="C100:M100" si="5">(C99/B99)-1</f>
+        <v>1.1501324503311259</v>
+      </c>
+      <c r="D100" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.22130162934672126</v>
+      </c>
+      <c r="E100" s="18">
+        <f t="shared" si="5"/>
+        <v>0.67304801835297834</v>
+      </c>
+      <c r="F100" s="18">
+        <f t="shared" si="5"/>
+        <v>1.8314498715463312E-2</v>
+      </c>
+      <c r="G100" s="18">
+        <f t="shared" si="5"/>
+        <v>0.28574966335959395</v>
+      </c>
+      <c r="H100" s="18">
+        <f t="shared" si="5"/>
+        <v>0.2384947815723899</v>
+      </c>
+      <c r="I100" s="18">
+        <f t="shared" si="5"/>
+        <v>-2.907671821389346E-2</v>
+      </c>
+      <c r="J100" s="18">
+        <f t="shared" si="5"/>
+        <v>2.1879138865669252</v>
+      </c>
+      <c r="K100" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.25241210819433779</v>
+      </c>
+      <c r="L100" s="18">
+        <f t="shared" si="5"/>
+        <v>2.8623742995639865</v>
+      </c>
+      <c r="M100" s="18">
+        <f t="shared" si="5"/>
+        <v>-0.27569331158238175</v>
+      </c>
+      <c r="N100" s="19">
+        <f>(N99/M99)-1</f>
+        <v>0.76876876876876876</v>
+      </c>
+      <c r="O100" s="19">
+        <f t="shared" ref="O100:T100" si="6">(O99/N99)-1</f>
+        <v>9.4651952461799693E-2</v>
+      </c>
+      <c r="P100" s="19">
+        <f t="shared" si="6"/>
+        <v>-0.18960837533927877</v>
+      </c>
+      <c r="Q100" s="19">
+        <f t="shared" si="6"/>
+        <v>0.69760765550239245</v>
+      </c>
+      <c r="R100" s="19">
+        <f t="shared" si="6"/>
+        <v>-0.1502254791431793</v>
+      </c>
+      <c r="S100" s="19">
+        <f t="shared" si="6"/>
+        <v>-7.6948590381426207E-2</v>
+      </c>
+      <c r="T100" s="19">
+        <f t="shared" si="6"/>
+        <v>-0.26877470355731226</v>
+      </c>
+      <c r="U100" s="19">
+        <f t="shared" ref="U100" si="7">(U99/T99)-1</f>
+        <v>0.80491400491400489</v>
+      </c>
+      <c r="V100" s="19">
+        <f t="shared" ref="V100" si="8">(V99/U99)-1</f>
+        <v>-0.21835012251565478</v>
+      </c>
+      <c r="W100" s="19">
+        <f t="shared" ref="W100" si="9">(W99/V99)-1</f>
+        <v>-8.3942877046325304E-2</v>
+      </c>
+      <c r="X100" s="19">
+        <f t="shared" ref="X100" si="10">(X99/W99)-1</f>
+        <v>0.34942965779467672</v>
+      </c>
+      <c r="Y100" s="19">
+        <f t="shared" ref="Y100" si="11">(Y99/X99)-1</f>
+        <v>0.29698506621583554</v>
+      </c>
+      <c r="Z100" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AA100" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="AB100" s="38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC100" s="21">
+        <f>(Y100+X100+W100+V100+U100+T100+S100+R100+Q100+P100)/10</f>
+        <v>0.11610862364437328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B99" s="18" t="e">
-        <f>(B98/A98)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C99" s="18">
-        <f t="shared" ref="B99:N99" si="2">(C98/B98)-1</f>
-        <v>1.1501324503311259</v>
-      </c>
-      <c r="D99" s="18">
-        <f t="shared" si="2"/>
-        <v>-0.22130162934672126</v>
-      </c>
-      <c r="E99" s="18">
-        <f t="shared" si="2"/>
-        <v>0.67304801835297834</v>
-      </c>
-      <c r="F99" s="18">
-        <f t="shared" si="2"/>
-        <v>1.8314498715463312E-2</v>
-      </c>
-      <c r="G99" s="18">
-        <f t="shared" si="2"/>
-        <v>0.28574966335959395</v>
-      </c>
-      <c r="H99" s="18">
-        <f t="shared" si="2"/>
-        <v>0.2384947815723899</v>
-      </c>
-      <c r="I99" s="18">
-        <f t="shared" si="2"/>
-        <v>-2.907671821389346E-2</v>
-      </c>
-      <c r="J99" s="18">
-        <f t="shared" si="2"/>
-        <v>2.1879138865669252</v>
-      </c>
-      <c r="K99" s="18">
-        <f t="shared" si="2"/>
-        <v>-0.25241210819433779</v>
-      </c>
-      <c r="L99" s="18">
-        <f t="shared" si="2"/>
-        <v>2.8623742995639865</v>
-      </c>
-      <c r="M99" s="18">
-        <f t="shared" si="2"/>
-        <v>-0.27569331158238175</v>
-      </c>
-      <c r="N99" s="19">
-        <f>(N98/M98)-1</f>
-        <v>0.76876876876876876</v>
-      </c>
-      <c r="O99" s="19">
-        <f t="shared" ref="O99:T99" si="3">(O98/N98)-1</f>
-        <v>9.4651952461799693E-2</v>
-      </c>
-      <c r="P99" s="19">
-        <f t="shared" si="3"/>
-        <v>-0.18960837533927877</v>
-      </c>
-      <c r="Q99" s="19">
-        <f t="shared" si="3"/>
-        <v>0.69760765550239245</v>
-      </c>
-      <c r="R99" s="19">
-        <f t="shared" si="3"/>
-        <v>-0.1502254791431793</v>
-      </c>
-      <c r="S99" s="19">
-        <f t="shared" si="3"/>
-        <v>-7.6948590381426207E-2</v>
-      </c>
-      <c r="T99" s="19">
-        <f t="shared" si="3"/>
-        <v>-0.26877470355731226</v>
-      </c>
-      <c r="U99" s="19">
-        <f t="shared" ref="U99" si="4">(U98/T98)-1</f>
-        <v>0.80491400491400489</v>
-      </c>
-      <c r="V99" s="19">
-        <f t="shared" ref="V99" si="5">(V98/U98)-1</f>
-        <v>-0.21835012251565478</v>
-      </c>
-      <c r="W99" s="19">
-        <f t="shared" ref="W99" si="6">(W98/V98)-1</f>
-        <v>-8.3942877046325304E-2</v>
-      </c>
-      <c r="X99" s="19">
-        <f t="shared" ref="X99" si="7">(X98/W98)-1</f>
-        <v>0.34942965779467672</v>
-      </c>
-      <c r="Y99" s="19">
-        <f t="shared" ref="Y99" si="8">(Y98/X98)-1</f>
-        <v>0.29698506621583554</v>
-      </c>
-      <c r="Z99" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="AA99" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="AB99" s="38">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AC99" s="21">
-        <f>(Y99+X99+W99+V99+U99)/5</f>
-        <v>0.22980714587250742</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A100" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z100" s="1">
-        <f>Z98/(1+$AD$54)^Z97</f>
-        <v>5187751725.6645889</v>
-      </c>
-      <c r="AA100" s="1">
-        <f>AA98/(1+$AD$54)^AA97</f>
-        <v>5846788608.9802132</v>
-      </c>
-      <c r="AB100" s="1">
-        <f>AB98/(1+$AD$54)^AB97</f>
-        <v>90313662488.975494</v>
-      </c>
-      <c r="AC100" s="40"/>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Y102" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z102" s="44">
-        <f>SUM(Z100:AB100)</f>
-        <v>101348202823.6203</v>
-      </c>
+      <c r="Z101" s="1">
+        <f>Z99/(1+$AD$55)^Z98</f>
+        <v>4638349036.8675451</v>
+      </c>
+      <c r="AA101" s="1">
+        <f>AA99/(1+$AD$55)^AA98</f>
+        <v>4673969538.9550486</v>
+      </c>
+      <c r="AB101" s="1">
+        <f>AB99/(1+$AD$55)^AB98</f>
+        <v>71916012721.500565</v>
+      </c>
+      <c r="AC101" s="40"/>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="Y103" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z103" s="44">
+        <f>SUM(Z101:AB101)</f>
+        <v>81228331297.323151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Y104" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z104" s="44">
+        <f>AD50</f>
+        <v>7488000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Y105" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z105" s="45">
+        <f>Y36</f>
+        <v>16585000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Y106" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="Z103" s="44">
-        <f>AD49</f>
-        <v>7488000000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Y104" s="45" t="s">
+      <c r="Z106" s="46">
+        <f>Z103-Z104+Z105</f>
+        <v>90325331297.323151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Y107" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="Z104" s="45">
-        <f>Y35</f>
-        <v>16585000000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Y105" s="46" t="s">
+      <c r="Z107" s="45">
+        <v>150770000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" s="40" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y108" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z108" s="52">
+        <f>Z106/Z107</f>
+        <v>599.09352853567123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="Y109" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="Z105" s="46">
-        <f>Z102-Z103+Z104</f>
-        <v>110445202823.6203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Y106" s="45" t="s">
+      <c r="Z109">
+        <v>635.94000000000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Y110" s="40"/>
+    </row>
+    <row r="111" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="Y111" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="Z106" s="45">
-        <v>150770000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Y107" s="47" t="s">
+      <c r="Z111" s="48" t="str">
+        <f>IF(Z108&gt;Z109, "BUY", "SELL")</f>
+        <v>SELL</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="Y112" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="Z107" s="48">
-        <f>Z105/Z106</f>
-        <v>732.54097515168996</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="Y108" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z108">
-        <v>597.67999999999995</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="Y109" s="40"/>
-    </row>
-    <row r="110" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="Y110" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z110" s="50" t="str">
-        <f>IF(Z107&gt;Z108, "BUY", "SELL")</f>
-        <v>BUY</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" ht="17" x14ac:dyDescent="0.2">
-      <c r="Y111" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z111" s="51">
-        <f>(Z107/Z108)-1</f>
-        <v>0.22564076956178902</v>
+      <c r="Z112" s="49">
+        <f>(Z108/Z109)-1</f>
+        <v>-5.7940169614002612E-2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/BLK" display="ROIC.AI | BLK" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B31" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B69" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C31" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C69" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D31" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D69" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E31" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E69" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F31" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F69" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G31" r:id="rId12" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G69" r:id="rId13" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H31" r:id="rId14" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H69" r:id="rId15" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I31" r:id="rId16" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I69" r:id="rId17" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J31" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312507053304/0001193125-07-053304-index.htm" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J69" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312507053304/0001193125-07-053304-index.htm" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K31" r:id="rId20" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312508041884/0001193125-08-041884-index.htm" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K69" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312508041884/0001193125-08-041884-index.htm" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L31" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312509041298/0001193125-09-041298-index.htm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L69" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312509041298/0001193125-09-041298-index.htm" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M31" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312510052764/0001193125-10-052764-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M69" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312510052764/0001193125-10-052764-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N31" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312511050218/0001193125-11-050218-index.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N69" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312511050218/0001193125-11-050218-index.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O31" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312512085869/0001193125-12-085869-index.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O69" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312512085869/0001193125-12-085869-index.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="P31" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312513084957/0001193125-13-084957-index.htm" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="P69" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312513084957/0001193125-13-084957-index.htm" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q31" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312514076587/0001193125-14-076587-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q69" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312514076587/0001193125-14-076587-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="R31" r:id="rId34" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312515069955/0001193125-15-069955-index.htm" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="R69" r:id="rId35" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312515069955/0001193125-15-069955-index.htm" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="S31" r:id="rId36" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459016013511/0001564590-16-013511-index.htm" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="S69" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459016013511/0001564590-16-013511-index.htm" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="T31" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459017002816/0001564590-17-002816-index.htm" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T69" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459017002816/0001564590-17-002816-index.htm" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="U31" r:id="rId40" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459018003744/0001564590-18-003744-index.htm" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="U69" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459018003744/0001564590-18-003744-index.htm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="V31" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459019005479/0001564590-19-005479-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="V69" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459019005479/0001564590-19-005479-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="W31" r:id="rId44" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459020007807/0001564590-20-007807-index.htm" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="W69" r:id="rId45" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459020007807/0001564590-20-007807-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="X31" r:id="rId46" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459021008796/0001564590-21-008796-index.htm" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="X69" r:id="rId47" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459021008796/0001564590-21-008796-index.htm" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="Y31" r:id="rId48" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459022007117/0001564590-22-007117-index.htm" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="Y69" r:id="rId49" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459022007117/0001564590-22-007117-index.htm" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B32" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B70" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C32" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C70" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D32" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D70" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E32" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E70" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F32" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F70" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G32" r:id="rId12" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G70" r:id="rId13" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H32" r:id="rId14" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H70" r:id="rId15" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I32" r:id="rId16" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I70" r:id="rId17" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J32" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312507053304/0001193125-07-053304-index.htm" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J70" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312507053304/0001193125-07-053304-index.htm" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K32" r:id="rId20" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312508041884/0001193125-08-041884-index.htm" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K70" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312508041884/0001193125-08-041884-index.htm" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L32" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312509041298/0001193125-09-041298-index.htm" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L70" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312509041298/0001193125-09-041298-index.htm" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M32" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312510052764/0001193125-10-052764-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M70" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312510052764/0001193125-10-052764-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N32" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312511050218/0001193125-11-050218-index.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N70" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312511050218/0001193125-11-050218-index.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O32" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312512085869/0001193125-12-085869-index.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O70" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312512085869/0001193125-12-085869-index.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="P32" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312513084957/0001193125-13-084957-index.htm" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="P70" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312513084957/0001193125-13-084957-index.htm" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q32" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312514076587/0001193125-14-076587-index.htm" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q70" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312514076587/0001193125-14-076587-index.htm" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="R32" r:id="rId34" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312515069955/0001193125-15-069955-index.htm" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="R70" r:id="rId35" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000119312515069955/0001193125-15-069955-index.htm" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="S32" r:id="rId36" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459016013511/0001564590-16-013511-index.htm" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="S70" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459016013511/0001564590-16-013511-index.htm" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="T32" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459017002816/0001564590-17-002816-index.htm" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="T70" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459017002816/0001564590-17-002816-index.htm" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="U32" r:id="rId40" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459018003744/0001564590-18-003744-index.htm" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="U70" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459018003744/0001564590-18-003744-index.htm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="V32" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459019005479/0001564590-19-005479-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="V70" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459019005479/0001564590-19-005479-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="W32" r:id="rId44" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459020007807/0001564590-20-007807-index.htm" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="W70" r:id="rId45" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459020007807/0001564590-20-007807-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="X32" r:id="rId46" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459021008796/0001564590-21-008796-index.htm" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="X70" r:id="rId47" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459021008796/0001564590-21-008796-index.htm" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Y32" r:id="rId48" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459022007117/0001564590-22-007117-index.htm" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Y70" r:id="rId49" tooltip="https://www.sec.gov/Archives/edgar/data/1364742/000156459022007117/0001564590-22-007117-index.htm" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
